--- a/data/Databases/Armatures.xlsx
+++ b/data/Databases/Armatures.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Projects\Pult\data\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E43D3D4-9BA7-4873-BE80-41112D5177BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA59DD52-5CEC-49EE-A168-8E8E458C5A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{689DFDD8-E52F-443B-909B-536243585B70}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1551" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="845">
   <si>
     <t>ручн.</t>
   </si>
@@ -2443,9 +2443,6 @@
   </si>
   <si>
     <t>008</t>
-  </si>
-  <si>
-    <t>План на отметке -4,8.pdf</t>
   </si>
   <si>
     <t>Д-07в</t>
@@ -2924,6 +2921,9 @@
   </si>
   <si>
     <t>А-0</t>
+  </si>
+  <si>
+    <t>Безымянный-1.pdf</t>
   </si>
 </sst>
 </file>
@@ -3027,7 +3027,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -3153,15 +3153,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -3196,17 +3187,6 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -3291,7 +3271,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3338,23 +3318,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3362,16 +3340,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3393,16 +3365,16 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3411,23 +3383,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3744,35 +3716,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26C68855-AFB7-4561-A33B-D7D2C86ED3B7}">
-  <dimension ref="A1:L357"/>
+  <dimension ref="A1:J357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="8" width="9.140625" style="35"/>
-    <col min="11" max="11" width="23.140625" customWidth="1"/>
-    <col min="12" max="12" width="24.140625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="16.28515625"/>
+    <col min="2" max="2" customWidth="true" width="27.28515625"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375"/>
+    <col min="4" max="4" customWidth="true" width="26.140625"/>
+    <col min="6" max="6" customWidth="true" width="15.7109375"/>
+    <col min="7" max="8" style="31" width="9.140625"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="27" t="s">
         <v>708</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>703</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>700</v>
       </c>
       <c r="E1" s="1" t="s">
@@ -3781,50 +3751,50 @@
       <c r="F1" s="1" t="s">
         <v>701</v>
       </c>
-      <c r="G1" s="32" t="s">
+      <c r="G1" s="28" t="s">
         <v>706</v>
       </c>
-      <c r="H1" s="32" t="s">
+      <c r="H1" s="28" t="s">
         <v>705</v>
       </c>
       <c r="I1" s="14" t="s">
         <v>704</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="22" t="s">
         <v>702</v>
       </c>
-      <c r="K1" s="28"/>
-      <c r="L1" s="29"/>
-    </row>
-    <row r="2" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="37" t="s">
+        <v>843</v>
+      </c>
+      <c r="B2" s="25" t="s">
         <v>844</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>711</v>
-      </c>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="23"/>
+      <c r="D2" s="21"/>
       <c r="E2" s="3"/>
       <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="29" t="s">
         <v>709</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="29" t="s">
         <v>709</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="3" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="25" t="s">
+        <v>844</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3837,10 +3807,10 @@
       <c r="F3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="29">
         <v>702</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="29">
         <v>702</v>
       </c>
       <c r="I3" s="3" t="s">
@@ -3850,7 +3820,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
@@ -3863,16 +3833,16 @@
       <c r="F4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="33">
+      <c r="G4" s="29">
         <v>702</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="29">
         <v>702</v>
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="2"/>
     </row>
-    <row r="5" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -3885,16 +3855,16 @@
       <c r="F5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="33" t="s">
+      <c r="G5" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="33" t="s">
+      <c r="H5" s="29" t="s">
         <v>13</v>
       </c>
       <c r="I5" s="3"/>
       <c r="J5" s="2"/>
     </row>
-    <row r="6" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -3907,16 +3877,16 @@
       <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="33" t="s">
+      <c r="G6" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="33" t="s">
+      <c r="H6" s="29" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:12" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -3929,20 +3899,22 @@
       <c r="F7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="33">
+      <c r="G7" s="29">
         <v>702</v>
       </c>
-      <c r="H7" s="33">
+      <c r="H7" s="29">
         <v>702</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>844</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
@@ -3955,10 +3927,10 @@
       <c r="F8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="33" t="s">
+      <c r="G8" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H8" s="33" t="s">
+      <c r="H8" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I8" s="3" t="s">
@@ -3968,11 +3940,13 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>844</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
       </c>
@@ -3985,10 +3959,10 @@
       <c r="F9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="G9" s="33" t="s">
+      <c r="G9" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="33" t="s">
+      <c r="H9" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I9" s="3" t="s">
@@ -3998,11 +3972,13 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>844</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
@@ -4015,10 +3991,10 @@
       <c r="F10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="33" t="s">
+      <c r="H10" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I10" s="3" t="s">
@@ -4028,7 +4004,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>35</v>
       </c>
@@ -4045,10 +4021,10 @@
       <c r="F11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="33" t="s">
+      <c r="G11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="33" t="s">
+      <c r="H11" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I11" s="3" t="s">
@@ -4057,9 +4033,8 @@
       <c r="J11" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>39</v>
       </c>
@@ -4072,17 +4047,16 @@
       <c r="F12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="33" t="s">
+      <c r="G12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="33" t="s">
+      <c r="H12" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="16"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>41</v>
       </c>
@@ -4095,17 +4069,16 @@
       <c r="F13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="G13" s="33" t="s">
+      <c r="G13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H13" s="33" t="s">
+      <c r="H13" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="16"/>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>44</v>
       </c>
@@ -4122,10 +4095,10 @@
       <c r="F14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="33" t="s">
+      <c r="G14" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H14" s="33" t="s">
+      <c r="H14" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I14" s="3" t="s">
@@ -4134,9 +4107,8 @@
       <c r="J14" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>50</v>
       </c>
@@ -4153,10 +4125,10 @@
       <c r="F15" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="33" t="s">
+      <c r="G15" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H15" s="33" t="s">
+      <c r="H15" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I15" s="3" t="s">
@@ -4165,9 +4137,8 @@
       <c r="J15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:12" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>54</v>
       </c>
@@ -4184,10 +4155,10 @@
       <c r="F16" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="33" t="s">
+      <c r="G16" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="33" t="s">
+      <c r="H16" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I16" s="3" t="s">
@@ -4196,9 +4167,8 @@
       <c r="J16" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K16" s="21"/>
-    </row>
-    <row r="17" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>59</v>
       </c>
@@ -4215,10 +4185,10 @@
       <c r="F17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G17" s="33" t="s">
+      <c r="G17" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H17" s="33" t="s">
+      <c r="H17" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I17" s="3" t="s">
@@ -4227,9 +4197,8 @@
       <c r="J17" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K17" s="21"/>
-    </row>
-    <row r="18" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>63</v>
       </c>
@@ -4246,10 +4215,10 @@
       <c r="F18" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="G18" s="33" t="s">
+      <c r="G18" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="33" t="s">
+      <c r="H18" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I18" s="3" t="s">
@@ -4258,9 +4227,8 @@
       <c r="J18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K18" s="21"/>
-    </row>
-    <row r="19" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>69</v>
       </c>
@@ -4277,10 +4245,10 @@
       <c r="F19" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G19" s="33" t="s">
+      <c r="G19" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="33" t="s">
+      <c r="H19" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I19" s="3" t="s">
@@ -4289,9 +4257,8 @@
       <c r="J19" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K19" s="21"/>
-    </row>
-    <row r="20" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
@@ -4308,10 +4275,10 @@
       <c r="F20" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="G20" s="33" t="s">
+      <c r="G20" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="33" t="s">
+      <c r="H20" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I20" s="3" t="s">
@@ -4320,9 +4287,8 @@
       <c r="J20" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K20" s="21"/>
-    </row>
-    <row r="21" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>77</v>
       </c>
@@ -4339,10 +4305,10 @@
       <c r="F21" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="G21" s="33" t="s">
+      <c r="G21" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H21" s="33" t="s">
+      <c r="H21" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I21" s="3" t="s">
@@ -4351,9 +4317,8 @@
       <c r="J21" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>80</v>
       </c>
@@ -4366,17 +4331,16 @@
       <c r="F22" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="33" t="s">
+      <c r="G22" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H22" s="33" t="s">
+      <c r="H22" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="16"/>
-      <c r="K22" s="21"/>
-    </row>
-    <row r="23" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>82</v>
       </c>
@@ -4389,17 +4353,16 @@
       <c r="F23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G23" s="33" t="s">
+      <c r="G23" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H23" s="33" t="s">
+      <c r="H23" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="16"/>
-      <c r="K23" s="21"/>
-    </row>
-    <row r="24" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>84</v>
       </c>
@@ -4412,17 +4375,16 @@
       <c r="F24" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G24" s="33" t="s">
+      <c r="G24" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H24" s="33" t="s">
+      <c r="H24" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="16"/>
-      <c r="K24" s="21"/>
-    </row>
-    <row r="25" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>85</v>
       </c>
@@ -4435,17 +4397,16 @@
       <c r="F25" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G25" s="33" t="s">
+      <c r="G25" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H25" s="33" t="s">
+      <c r="H25" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="16"/>
-      <c r="K25" s="21"/>
-    </row>
-    <row r="26" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>87</v>
       </c>
@@ -4458,17 +4419,16 @@
       <c r="F26" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="33" t="s">
+      <c r="G26" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H26" s="33" t="s">
+      <c r="H26" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="16"/>
-      <c r="K26" s="21"/>
-    </row>
-    <row r="27" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>88</v>
       </c>
@@ -4481,17 +4441,16 @@
       <c r="F27" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="29">
         <v>606</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="29">
         <v>607</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="16"/>
-      <c r="K27" s="21"/>
-    </row>
-    <row r="28" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>90</v>
       </c>
@@ -4504,17 +4463,16 @@
       <c r="F28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G28" s="33" t="s">
+      <c r="G28" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H28" s="33" t="s">
+      <c r="H28" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="16"/>
-      <c r="K28" s="21"/>
-    </row>
-    <row r="29" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>92</v>
       </c>
@@ -4527,17 +4485,16 @@
       <c r="F29" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G29" s="33" t="s">
+      <c r="G29" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="33" t="s">
+      <c r="H29" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="21"/>
-    </row>
-    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>94</v>
       </c>
@@ -4550,17 +4507,16 @@
       <c r="F30" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G30" s="33" t="s">
+      <c r="G30" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H30" s="33" t="s">
+      <c r="H30" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="16"/>
-      <c r="K30" s="21"/>
-    </row>
-    <row r="31" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>96</v>
       </c>
@@ -4573,17 +4529,16 @@
       <c r="F31" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="G31" s="33" t="s">
+      <c r="G31" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="16"/>
-      <c r="K31" s="21"/>
-    </row>
-    <row r="32" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>97</v>
       </c>
@@ -4596,17 +4551,16 @@
       <c r="F32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G32" s="33" t="s">
+      <c r="G32" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H32" s="33" t="s">
+      <c r="H32" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="16"/>
-      <c r="K32" s="21"/>
-    </row>
-    <row r="33" spans="1:11" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:10" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>98</v>
       </c>
@@ -4619,17 +4573,16 @@
       <c r="F33" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="G33" s="33" t="s">
+      <c r="G33" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="33" t="s">
+      <c r="H33" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="16"/>
-      <c r="K33" s="21"/>
-    </row>
-    <row r="34" spans="1:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>99</v>
       </c>
@@ -4642,17 +4595,16 @@
       <c r="F34" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="G34" s="33">
+      <c r="G34" s="29">
         <v>606</v>
       </c>
-      <c r="H34" s="33">
+      <c r="H34" s="29">
         <v>607</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="16"/>
-      <c r="K34" s="21"/>
-    </row>
-    <row r="35" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>101</v>
       </c>
@@ -4665,17 +4617,16 @@
       <c r="F35" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="G35" s="33">
+      <c r="G35" s="29">
         <v>606</v>
       </c>
-      <c r="H35" s="33">
+      <c r="H35" s="29">
         <v>607</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="16"/>
-      <c r="K35" s="21"/>
-    </row>
-    <row r="36" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>103</v>
       </c>
@@ -4688,17 +4639,16 @@
       <c r="F36" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="G36" s="33" t="s">
+      <c r="G36" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="H36" s="33" t="s">
+      <c r="H36" s="29" t="s">
         <v>710</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="16"/>
-      <c r="K36" s="21"/>
-    </row>
-    <row r="37" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="5" t="s">
         <v>105</v>
       </c>
@@ -4711,17 +4661,16 @@
       <c r="F37" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="G37" s="33" t="s">
+      <c r="G37" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="H37" s="33" t="s">
+      <c r="H37" s="29" t="s">
         <v>710</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="16"/>
-      <c r="K37" s="21"/>
-    </row>
-    <row r="38" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>107</v>
       </c>
@@ -4738,10 +4687,10 @@
       <c r="F38" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="G38" s="33" t="s">
+      <c r="G38" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="H38" s="33" t="s">
+      <c r="H38" s="29" t="s">
         <v>710</v>
       </c>
       <c r="I38" s="3" t="s">
@@ -4750,9 +4699,8 @@
       <c r="J38" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="K38" s="21"/>
-    </row>
-    <row r="39" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>113</v>
       </c>
@@ -4769,20 +4717,20 @@
       <c r="F39" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="G39" s="33" t="s">
+      <c r="G39" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="H39" s="33" t="s">
+      <c r="H39" s="29" t="s">
         <v>710</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="J39" s="30" t="s">
+      <c r="J39" s="26" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>117</v>
       </c>
@@ -4799,10 +4747,10 @@
       <c r="F40" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G40" s="33" t="s">
+      <c r="G40" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="H40" s="33" t="s">
+      <c r="H40" s="29" t="s">
         <v>710</v>
       </c>
       <c r="I40" s="3" t="s">
@@ -4811,9 +4759,8 @@
       <c r="J40" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="K40" s="21"/>
-    </row>
-    <row r="41" spans="1:11" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:10" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>121</v>
       </c>
@@ -4830,10 +4777,10 @@
       <c r="F41" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="G41" s="33">
+      <c r="G41" s="29">
         <v>107</v>
       </c>
-      <c r="H41" s="33">
+      <c r="H41" s="29">
         <v>409</v>
       </c>
       <c r="I41" s="3" t="s">
@@ -4842,9 +4789,8 @@
       <c r="J41" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="K41" s="21"/>
-    </row>
-    <row r="42" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>124</v>
       </c>
@@ -4861,10 +4807,10 @@
       <c r="F42" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="G42" s="33" t="s">
+      <c r="G42" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="H42" s="33" t="s">
+      <c r="H42" s="29" t="s">
         <v>710</v>
       </c>
       <c r="I42" s="3" t="s">
@@ -4873,9 +4819,8 @@
       <c r="J42" s="16" t="s">
         <v>112</v>
       </c>
-      <c r="K42" s="21"/>
-    </row>
-    <row r="43" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>127</v>
       </c>
@@ -4892,10 +4837,10 @@
       <c r="F43" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="G43" s="33" t="s">
+      <c r="G43" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="H43" s="33" t="s">
+      <c r="H43" s="29" t="s">
         <v>710</v>
       </c>
       <c r="I43" s="3" t="s">
@@ -4904,9 +4849,8 @@
       <c r="J43" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="K43" s="21"/>
-    </row>
-    <row r="44" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>129</v>
       </c>
@@ -4919,17 +4863,16 @@
       <c r="F44" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="G44" s="33" t="s">
+      <c r="G44" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="H44" s="33" t="s">
+      <c r="H44" s="29" t="s">
         <v>710</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="16"/>
-      <c r="K44" s="21"/>
-    </row>
-    <row r="45" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>131</v>
       </c>
@@ -4942,17 +4885,16 @@
       <c r="F45" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="G45" s="33" t="s">
+      <c r="G45" s="29" t="s">
         <v>710</v>
       </c>
-      <c r="H45" s="33" t="s">
+      <c r="H45" s="29" t="s">
         <v>710</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="16"/>
-      <c r="K45" s="21"/>
-    </row>
-    <row r="46" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>133</v>
       </c>
@@ -4965,17 +4907,16 @@
       <c r="F46" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="G46" s="33">
+      <c r="G46" s="29">
         <v>606</v>
       </c>
-      <c r="H46" s="33">
+      <c r="H46" s="29">
         <v>607</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="16"/>
-      <c r="K46" s="21"/>
-    </row>
-    <row r="47" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>135</v>
       </c>
@@ -4988,17 +4929,16 @@
       <c r="F47" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="G47" s="33">
+      <c r="G47" s="29">
         <v>702</v>
       </c>
-      <c r="H47" s="33">
+      <c r="H47" s="29">
         <v>702</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="16"/>
-      <c r="K47" s="21"/>
-    </row>
-    <row r="48" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>137</v>
       </c>
@@ -5011,17 +4951,16 @@
       <c r="F48" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="G48" s="33">
+      <c r="G48" s="29">
         <v>22</v>
       </c>
-      <c r="H48" s="33">
+      <c r="H48" s="29">
         <v>25</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="16"/>
-      <c r="K48" s="21"/>
-    </row>
-    <row r="49" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>139</v>
       </c>
@@ -5034,17 +4973,16 @@
       <c r="F49" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="G49" s="33" t="s">
+      <c r="G49" s="29" t="s">
         <v>141</v>
       </c>
-      <c r="H49" s="33" t="s">
+      <c r="H49" s="29" t="s">
         <v>13</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="16"/>
-      <c r="K49" s="21"/>
-    </row>
-    <row r="50" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>142</v>
       </c>
@@ -5061,10 +4999,10 @@
       <c r="F50" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G50" s="33">
+      <c r="G50" s="29">
         <v>107</v>
       </c>
-      <c r="H50" s="33">
+      <c r="H50" s="29">
         <v>409</v>
       </c>
       <c r="I50" s="3" t="s">
@@ -5073,9 +5011,8 @@
       <c r="J50" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="K50" s="21"/>
-    </row>
-    <row r="51" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="7">
         <v>1</v>
       </c>
@@ -5092,10 +5029,10 @@
       <c r="F51" s="8">
         <v>5</v>
       </c>
-      <c r="G51" s="34">
+      <c r="G51" s="30">
         <v>6</v>
       </c>
-      <c r="H51" s="34">
+      <c r="H51" s="30">
         <v>7</v>
       </c>
       <c r="I51" s="8">
@@ -5104,9 +5041,8 @@
       <c r="J51" s="18">
         <v>9</v>
       </c>
-      <c r="K51" s="21"/>
-    </row>
-    <row r="52" spans="1:11" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:10" ht="33" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>149</v>
       </c>
@@ -5123,10 +5059,10 @@
       <c r="F52" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G52" s="33">
+      <c r="G52" s="29">
         <v>107</v>
       </c>
-      <c r="H52" s="33">
+      <c r="H52" s="29">
         <v>409</v>
       </c>
       <c r="I52" s="3" t="s">
@@ -5135,9 +5071,8 @@
       <c r="J52" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="K52" s="21"/>
-    </row>
-    <row r="53" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>153</v>
       </c>
@@ -5154,10 +5089,10 @@
       <c r="F53" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G53" s="33">
+      <c r="G53" s="29">
         <v>215</v>
       </c>
-      <c r="H53" s="33">
+      <c r="H53" s="29">
         <v>409</v>
       </c>
       <c r="I53" s="3" t="s">
@@ -5166,9 +5101,8 @@
       <c r="J53" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="K53" s="21"/>
-    </row>
-    <row r="54" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>157</v>
       </c>
@@ -5181,17 +5115,16 @@
       <c r="F54" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G54" s="33">
+      <c r="G54" s="29">
         <v>501</v>
       </c>
-      <c r="H54" s="33">
+      <c r="H54" s="29">
         <v>501</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="16"/>
-      <c r="K54" s="21"/>
-    </row>
-    <row r="55" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>159</v>
       </c>
@@ -5204,17 +5137,16 @@
       <c r="F55" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G55" s="33">
+      <c r="G55" s="29">
         <v>501</v>
       </c>
-      <c r="H55" s="33">
+      <c r="H55" s="29">
         <v>501</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="16"/>
-      <c r="K55" s="21"/>
-    </row>
-    <row r="56" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>161</v>
       </c>
@@ -5227,17 +5159,16 @@
       <c r="F56" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G56" s="33">
+      <c r="G56" s="29">
         <v>501</v>
       </c>
-      <c r="H56" s="33">
+      <c r="H56" s="29">
         <v>501</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="16"/>
-      <c r="K56" s="21"/>
-    </row>
-    <row r="57" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>163</v>
       </c>
@@ -5250,17 +5181,16 @@
       <c r="F57" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G57" s="33">
+      <c r="G57" s="29">
         <v>501</v>
       </c>
-      <c r="H57" s="33">
+      <c r="H57" s="29">
         <v>501</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="16"/>
-      <c r="K57" s="21"/>
-    </row>
-    <row r="58" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>165</v>
       </c>
@@ -5273,17 +5203,16 @@
       <c r="F58" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G58" s="33">
+      <c r="G58" s="29">
         <v>501</v>
       </c>
-      <c r="H58" s="33">
+      <c r="H58" s="29">
         <v>501</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="16"/>
-      <c r="K58" s="21"/>
-    </row>
-    <row r="59" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>167</v>
       </c>
@@ -5296,17 +5225,16 @@
       <c r="F59" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="G59" s="33">
+      <c r="G59" s="29">
         <v>501</v>
       </c>
-      <c r="H59" s="33">
+      <c r="H59" s="29">
         <v>501</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="16"/>
-      <c r="K59" s="21"/>
-    </row>
-    <row r="60" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>169</v>
       </c>
@@ -5319,17 +5247,16 @@
       <c r="F60" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="G60" s="33">
+      <c r="G60" s="29">
         <v>501</v>
       </c>
-      <c r="H60" s="33">
+      <c r="H60" s="29">
         <v>501</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="16"/>
-      <c r="K60" s="21"/>
-    </row>
-    <row r="61" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>171</v>
       </c>
@@ -5342,17 +5269,16 @@
       <c r="F61" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="G61" s="33">
+      <c r="G61" s="29">
         <v>501</v>
       </c>
-      <c r="H61" s="33">
+      <c r="H61" s="29">
         <v>501</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="16"/>
-      <c r="K61" s="21"/>
-    </row>
-    <row r="62" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>173</v>
       </c>
@@ -5365,17 +5291,16 @@
       <c r="F62" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="G62" s="33">
+      <c r="G62" s="29">
         <v>501</v>
       </c>
-      <c r="H62" s="33">
+      <c r="H62" s="29">
         <v>501</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="16"/>
-      <c r="K62" s="21"/>
-    </row>
-    <row r="63" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>175</v>
       </c>
@@ -5388,17 +5313,16 @@
       <c r="F63" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="G63" s="33">
+      <c r="G63" s="29">
         <v>501</v>
       </c>
-      <c r="H63" s="33">
+      <c r="H63" s="29">
         <v>501</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="16"/>
-      <c r="K63" s="21"/>
-    </row>
-    <row r="64" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>177</v>
       </c>
@@ -5411,17 +5335,16 @@
       <c r="F64" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="G64" s="33">
+      <c r="G64" s="29">
         <v>501</v>
       </c>
-      <c r="H64" s="33">
+      <c r="H64" s="29">
         <v>501</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="16"/>
-      <c r="K64" s="21"/>
-    </row>
-    <row r="65" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>179</v>
       </c>
@@ -5434,17 +5357,16 @@
       <c r="F65" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="G65" s="33">
+      <c r="G65" s="29">
         <v>501</v>
       </c>
-      <c r="H65" s="33">
+      <c r="H65" s="29">
         <v>501</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="16"/>
-      <c r="K65" s="21"/>
-    </row>
-    <row r="66" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>181</v>
       </c>
@@ -5457,17 +5379,16 @@
       <c r="F66" s="4" t="s">
         <v>182</v>
       </c>
-      <c r="G66" s="33">
+      <c r="G66" s="29">
         <v>501</v>
       </c>
-      <c r="H66" s="33">
+      <c r="H66" s="29">
         <v>501</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="16"/>
-      <c r="K66" s="21"/>
-    </row>
-    <row r="67" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>183</v>
       </c>
@@ -5480,17 +5401,16 @@
       <c r="F67" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="G67" s="33">
+      <c r="G67" s="29">
         <v>501</v>
       </c>
-      <c r="H67" s="33">
+      <c r="H67" s="29">
         <v>501</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="16"/>
-      <c r="K67" s="21"/>
-    </row>
-    <row r="68" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>185</v>
       </c>
@@ -5501,17 +5421,16 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="4"/>
-      <c r="G68" s="33">
+      <c r="G68" s="29">
         <v>501</v>
       </c>
-      <c r="H68" s="33">
+      <c r="H68" s="29">
         <v>501</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="16"/>
-      <c r="K68" s="21"/>
-    </row>
-    <row r="69" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>186</v>
       </c>
@@ -5524,17 +5443,16 @@
       <c r="F69" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="G69" s="33">
+      <c r="G69" s="29">
         <v>501</v>
       </c>
-      <c r="H69" s="33">
+      <c r="H69" s="29">
         <v>501</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="16"/>
-      <c r="K69" s="21"/>
-    </row>
-    <row r="70" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>188</v>
       </c>
@@ -5547,17 +5465,16 @@
       <c r="F70" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="G70" s="33">
+      <c r="G70" s="29">
         <v>501</v>
       </c>
-      <c r="H70" s="33">
+      <c r="H70" s="29">
         <v>501</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="16"/>
-      <c r="K70" s="21"/>
-    </row>
-    <row r="71" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>190</v>
       </c>
@@ -5570,17 +5487,16 @@
       <c r="F71" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="G71" s="33">
+      <c r="G71" s="29">
         <v>501</v>
       </c>
-      <c r="H71" s="33">
+      <c r="H71" s="29">
         <v>501</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="16"/>
-      <c r="K71" s="21"/>
-    </row>
-    <row r="72" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>192</v>
       </c>
@@ -5593,17 +5509,16 @@
       <c r="F72" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="G72" s="33">
+      <c r="G72" s="29">
         <v>501</v>
       </c>
-      <c r="H72" s="33">
+      <c r="H72" s="29">
         <v>501</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="16"/>
-      <c r="K72" s="21"/>
-    </row>
-    <row r="73" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>194</v>
       </c>
@@ -5616,17 +5531,16 @@
       <c r="F73" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="G73" s="33">
+      <c r="G73" s="29">
         <v>501</v>
       </c>
-      <c r="H73" s="33">
+      <c r="H73" s="29">
         <v>501</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="16"/>
-      <c r="K73" s="21"/>
-    </row>
-    <row r="74" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>196</v>
       </c>
@@ -5639,17 +5553,16 @@
       <c r="F74" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="G74" s="33">
+      <c r="G74" s="29">
         <v>501</v>
       </c>
-      <c r="H74" s="33">
+      <c r="H74" s="29">
         <v>501</v>
       </c>
       <c r="I74" s="3"/>
       <c r="J74" s="16"/>
-      <c r="K74" s="21"/>
-    </row>
-    <row r="75" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>198</v>
       </c>
@@ -5662,17 +5575,16 @@
       <c r="F75" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="G75" s="33">
+      <c r="G75" s="29">
         <v>107</v>
       </c>
-      <c r="H75" s="33">
+      <c r="H75" s="29">
         <v>107</v>
       </c>
       <c r="I75" s="3"/>
       <c r="J75" s="16"/>
-      <c r="K75" s="21"/>
-    </row>
-    <row r="76" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>200</v>
       </c>
@@ -5685,17 +5597,16 @@
       <c r="F76" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="G76" s="33">
+      <c r="G76" s="29">
         <v>501</v>
       </c>
-      <c r="H76" s="33">
+      <c r="H76" s="29">
         <v>501</v>
       </c>
       <c r="I76" s="3"/>
       <c r="J76" s="16"/>
-      <c r="K76" s="21"/>
-    </row>
-    <row r="77" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>202</v>
       </c>
@@ -5708,17 +5619,16 @@
       <c r="F77" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="G77" s="33">
+      <c r="G77" s="29">
         <v>501</v>
       </c>
-      <c r="H77" s="33">
+      <c r="H77" s="29">
         <v>501</v>
       </c>
       <c r="I77" s="3"/>
       <c r="J77" s="16"/>
-      <c r="K77" s="21"/>
-    </row>
-    <row r="78" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>204</v>
       </c>
@@ -5731,17 +5641,16 @@
       <c r="F78" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="G78" s="33">
+      <c r="G78" s="29">
         <v>501</v>
       </c>
-      <c r="H78" s="33">
+      <c r="H78" s="29">
         <v>501</v>
       </c>
       <c r="I78" s="3"/>
       <c r="J78" s="16"/>
-      <c r="K78" s="21"/>
-    </row>
-    <row r="79" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>206</v>
       </c>
@@ -5754,17 +5663,16 @@
       <c r="F79" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="G79" s="33">
+      <c r="G79" s="29">
         <v>501</v>
       </c>
-      <c r="H79" s="33">
+      <c r="H79" s="29">
         <v>501</v>
       </c>
       <c r="I79" s="3"/>
       <c r="J79" s="16"/>
-      <c r="K79" s="21"/>
-    </row>
-    <row r="80" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>208</v>
       </c>
@@ -5777,17 +5685,16 @@
       <c r="F80" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="G80" s="33">
+      <c r="G80" s="29">
         <v>501</v>
       </c>
-      <c r="H80" s="33">
+      <c r="H80" s="29">
         <v>501</v>
       </c>
       <c r="I80" s="3"/>
       <c r="J80" s="16"/>
-      <c r="K80" s="21"/>
-    </row>
-    <row r="81" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>210</v>
       </c>
@@ -5800,17 +5707,16 @@
       <c r="F81" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G81" s="33">
+      <c r="G81" s="29">
         <v>501</v>
       </c>
-      <c r="H81" s="33">
+      <c r="H81" s="29">
         <v>501</v>
       </c>
       <c r="I81" s="3"/>
       <c r="J81" s="16"/>
-      <c r="K81" s="21"/>
-    </row>
-    <row r="82" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>212</v>
       </c>
@@ -5823,17 +5729,16 @@
       <c r="F82" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="G82" s="33">
+      <c r="G82" s="29">
         <v>501</v>
       </c>
-      <c r="H82" s="33">
+      <c r="H82" s="29">
         <v>501</v>
       </c>
       <c r="I82" s="3"/>
       <c r="J82" s="16"/>
-      <c r="K82" s="21"/>
-    </row>
-    <row r="83" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>213</v>
       </c>
@@ -5846,17 +5751,16 @@
       <c r="F83" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G83" s="33">
+      <c r="G83" s="29">
         <v>14</v>
       </c>
-      <c r="H83" s="33">
+      <c r="H83" s="29">
         <v>14</v>
       </c>
       <c r="I83" s="3"/>
       <c r="J83" s="16"/>
-      <c r="K83" s="21"/>
-    </row>
-    <row r="84" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>215</v>
       </c>
@@ -5869,17 +5773,16 @@
       <c r="F84" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="G84" s="33">
+      <c r="G84" s="29">
         <v>107</v>
       </c>
-      <c r="H84" s="33">
+      <c r="H84" s="29">
         <v>107</v>
       </c>
       <c r="I84" s="3"/>
       <c r="J84" s="16"/>
-      <c r="K84" s="21"/>
-    </row>
-    <row r="85" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>216</v>
       </c>
@@ -5892,17 +5795,16 @@
       <c r="F85" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="G85" s="33">
+      <c r="G85" s="29">
         <v>216</v>
       </c>
-      <c r="H85" s="33">
+      <c r="H85" s="29">
         <v>216</v>
       </c>
       <c r="I85" s="3"/>
       <c r="J85" s="16"/>
-      <c r="K85" s="21"/>
-    </row>
-    <row r="86" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>218</v>
       </c>
@@ -5919,10 +5821,10 @@
       <c r="F86" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="G86" s="33">
+      <c r="G86" s="29">
         <v>216</v>
       </c>
-      <c r="H86" s="33">
+      <c r="H86" s="29">
         <v>501</v>
       </c>
       <c r="I86" s="3" t="s">
@@ -5931,9 +5833,8 @@
       <c r="J86" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="K86" s="21"/>
-    </row>
-    <row r="87" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>225</v>
       </c>
@@ -5950,10 +5851,10 @@
       <c r="F87" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="G87" s="33">
+      <c r="G87" s="29">
         <v>216</v>
       </c>
-      <c r="H87" s="33">
+      <c r="H87" s="29">
         <v>501</v>
       </c>
       <c r="I87" s="3" t="s">
@@ -5962,9 +5863,8 @@
       <c r="J87" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="K87" s="21"/>
-    </row>
-    <row r="88" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>228</v>
       </c>
@@ -5977,17 +5877,16 @@
       <c r="F88" s="4" t="s">
         <v>229</v>
       </c>
-      <c r="G88" s="33">
+      <c r="G88" s="29">
         <v>216</v>
       </c>
-      <c r="H88" s="33">
+      <c r="H88" s="29">
         <v>216</v>
       </c>
       <c r="I88" s="3"/>
       <c r="J88" s="16"/>
-      <c r="K88" s="21"/>
-    </row>
-    <row r="89" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>230</v>
       </c>
@@ -6004,10 +5903,10 @@
       <c r="F89" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="G89" s="33" t="s">
+      <c r="G89" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H89" s="33" t="s">
+      <c r="H89" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I89" s="3" t="s">
@@ -6016,9 +5915,8 @@
       <c r="J89" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="K89" s="21"/>
-    </row>
-    <row r="90" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>235</v>
       </c>
@@ -6031,17 +5929,16 @@
       <c r="F90" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="G90" s="33">
+      <c r="G90" s="29">
         <v>107</v>
       </c>
-      <c r="H90" s="33">
+      <c r="H90" s="29">
         <v>409</v>
       </c>
       <c r="I90" s="3"/>
       <c r="J90" s="16"/>
-      <c r="K90" s="21"/>
-    </row>
-    <row r="91" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>237</v>
       </c>
@@ -6056,17 +5953,16 @@
       <c r="F91" s="4" t="s">
         <v>236</v>
       </c>
-      <c r="G91" s="33">
+      <c r="G91" s="29">
         <v>107</v>
       </c>
-      <c r="H91" s="33">
+      <c r="H91" s="29">
         <v>107</v>
       </c>
       <c r="I91" s="3"/>
       <c r="J91" s="16"/>
-      <c r="K91" s="21"/>
-    </row>
-    <row r="92" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>239</v>
       </c>
@@ -6079,17 +5975,16 @@
       <c r="F92" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G92" s="33">
+      <c r="G92" s="29">
         <v>216</v>
       </c>
-      <c r="H92" s="33">
+      <c r="H92" s="29">
         <v>216</v>
       </c>
       <c r="I92" s="3"/>
       <c r="J92" s="16"/>
-      <c r="K92" s="21"/>
-    </row>
-    <row r="93" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>241</v>
       </c>
@@ -6102,17 +5997,16 @@
       <c r="F93" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="G93" s="33">
+      <c r="G93" s="29">
         <v>216</v>
       </c>
-      <c r="H93" s="33">
+      <c r="H93" s="29">
         <v>216</v>
       </c>
       <c r="I93" s="3"/>
       <c r="J93" s="16"/>
-      <c r="K93" s="21"/>
-    </row>
-    <row r="94" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>242</v>
       </c>
@@ -6129,10 +6023,10 @@
       <c r="F94" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="G94" s="33">
+      <c r="G94" s="29">
         <v>107</v>
       </c>
-      <c r="H94" s="33">
+      <c r="H94" s="29">
         <v>409</v>
       </c>
       <c r="I94" s="3" t="s">
@@ -6141,9 +6035,8 @@
       <c r="J94" s="17" t="s">
         <v>148</v>
       </c>
-      <c r="K94" s="21"/>
-    </row>
-    <row r="95" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>245</v>
       </c>
@@ -6160,10 +6053,10 @@
       <c r="F95" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="G95" s="33">
+      <c r="G95" s="29">
         <v>107</v>
       </c>
-      <c r="H95" s="33">
+      <c r="H95" s="29">
         <v>409</v>
       </c>
       <c r="I95" s="3" t="s">
@@ -6172,9 +6065,8 @@
       <c r="J95" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="K95" s="21"/>
-    </row>
-    <row r="96" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>250</v>
       </c>
@@ -6187,17 +6079,16 @@
       <c r="F96" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="G96" s="33">
+      <c r="G96" s="29">
         <v>107</v>
       </c>
-      <c r="H96" s="33">
+      <c r="H96" s="29">
         <v>409</v>
       </c>
       <c r="I96" s="3"/>
       <c r="J96" s="16"/>
-      <c r="K96" s="21"/>
-    </row>
-    <row r="97" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>252</v>
       </c>
@@ -6210,17 +6101,16 @@
       <c r="F97" s="4" t="s">
         <v>253</v>
       </c>
-      <c r="G97" s="33">
+      <c r="G97" s="29">
         <v>25</v>
       </c>
-      <c r="H97" s="33">
+      <c r="H97" s="29">
         <v>25</v>
       </c>
       <c r="I97" s="3"/>
       <c r="J97" s="16"/>
-      <c r="K97" s="21"/>
-    </row>
-    <row r="98" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>254</v>
       </c>
@@ -6233,17 +6123,16 @@
       <c r="F98" s="4" t="s">
         <v>255</v>
       </c>
-      <c r="G98" s="33">
+      <c r="G98" s="29">
         <v>7</v>
       </c>
-      <c r="H98" s="33">
+      <c r="H98" s="29">
         <v>7</v>
       </c>
       <c r="I98" s="3"/>
       <c r="J98" s="16"/>
-      <c r="K98" s="21"/>
-    </row>
-    <row r="99" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>256</v>
       </c>
@@ -6256,17 +6145,16 @@
       <c r="F99" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="G99" s="33">
+      <c r="G99" s="29">
         <v>25</v>
       </c>
-      <c r="H99" s="33">
+      <c r="H99" s="29">
         <v>25</v>
       </c>
       <c r="I99" s="3"/>
       <c r="J99" s="16"/>
-      <c r="K99" s="21"/>
-    </row>
-    <row r="100" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>258</v>
       </c>
@@ -6279,17 +6167,16 @@
       <c r="F100" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="G100" s="33">
+      <c r="G100" s="29">
         <v>25</v>
       </c>
-      <c r="H100" s="33">
+      <c r="H100" s="29">
         <v>25</v>
       </c>
       <c r="I100" s="3"/>
       <c r="J100" s="16"/>
-      <c r="K100" s="21"/>
-    </row>
-    <row r="101" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>260</v>
       </c>
@@ -6302,17 +6189,16 @@
       <c r="F101" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G101" s="33">
+      <c r="G101" s="29">
         <v>25</v>
       </c>
-      <c r="H101" s="33">
+      <c r="H101" s="29">
         <v>25</v>
       </c>
       <c r="I101" s="3"/>
       <c r="J101" s="16"/>
-      <c r="K101" s="21"/>
-    </row>
-    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>262</v>
       </c>
@@ -6325,17 +6211,16 @@
       <c r="F102" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="G102" s="33">
+      <c r="G102" s="29">
         <v>25</v>
       </c>
-      <c r="H102" s="33">
+      <c r="H102" s="29">
         <v>25</v>
       </c>
       <c r="I102" s="3"/>
       <c r="J102" s="16"/>
-      <c r="K102" s="21"/>
-    </row>
-    <row r="103" spans="1:11" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:10" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>263</v>
       </c>
@@ -6352,10 +6237,10 @@
       <c r="F103" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="G103" s="33">
+      <c r="G103" s="29">
         <v>25</v>
       </c>
-      <c r="H103" s="33">
+      <c r="H103" s="29">
         <v>25</v>
       </c>
       <c r="I103" s="3" t="s">
@@ -6364,9 +6249,8 @@
       <c r="J103" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="K103" s="21"/>
-    </row>
-    <row r="104" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>265</v>
       </c>
@@ -6383,10 +6267,10 @@
       <c r="F104" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="G104" s="33" t="s">
+      <c r="G104" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H104" s="33" t="s">
+      <c r="H104" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I104" s="3" t="s">
@@ -6395,9 +6279,8 @@
       <c r="J104" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="K104" s="21"/>
-    </row>
-    <row r="105" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>268</v>
       </c>
@@ -6410,17 +6293,16 @@
       <c r="F105" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="G105" s="33">
+      <c r="G105" s="29">
         <v>7</v>
       </c>
-      <c r="H105" s="33">
+      <c r="H105" s="29">
         <v>7</v>
       </c>
       <c r="I105" s="3"/>
       <c r="J105" s="16"/>
-      <c r="K105" s="21"/>
-    </row>
-    <row r="106" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>270</v>
       </c>
@@ -6433,17 +6315,16 @@
       <c r="F106" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G106" s="33">
+      <c r="G106" s="29">
         <v>107</v>
       </c>
-      <c r="H106" s="33">
+      <c r="H106" s="29">
         <v>107</v>
       </c>
       <c r="I106" s="3"/>
       <c r="J106" s="16"/>
-      <c r="K106" s="21"/>
-    </row>
-    <row r="107" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>272</v>
       </c>
@@ -6460,10 +6341,10 @@
       <c r="F107" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G107" s="33">
+      <c r="G107" s="29">
         <v>107</v>
       </c>
-      <c r="H107" s="33">
+      <c r="H107" s="29">
         <v>409</v>
       </c>
       <c r="I107" s="3" t="s">
@@ -6472,9 +6353,8 @@
       <c r="J107" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="K107" s="21"/>
-    </row>
-    <row r="108" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>277</v>
       </c>
@@ -6491,10 +6371,10 @@
       <c r="F108" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G108" s="33">
+      <c r="G108" s="29">
         <v>107</v>
       </c>
-      <c r="H108" s="33">
+      <c r="H108" s="29">
         <v>409</v>
       </c>
       <c r="I108" s="3" t="s">
@@ -6503,9 +6383,8 @@
       <c r="J108" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="K108" s="21"/>
-    </row>
-    <row r="109" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>280</v>
       </c>
@@ -6522,10 +6401,10 @@
       <c r="F109" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="G109" s="33">
+      <c r="G109" s="29">
         <v>107</v>
       </c>
-      <c r="H109" s="33">
+      <c r="H109" s="29">
         <v>409</v>
       </c>
       <c r="I109" s="3" t="s">
@@ -6534,9 +6413,8 @@
       <c r="J109" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="K109" s="21"/>
-    </row>
-    <row r="110" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>283</v>
       </c>
@@ -6553,10 +6431,10 @@
       <c r="F110" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="G110" s="33">
+      <c r="G110" s="29">
         <v>22</v>
       </c>
-      <c r="H110" s="33">
+      <c r="H110" s="29">
         <v>25</v>
       </c>
       <c r="I110" s="3" t="s">
@@ -6565,9 +6443,8 @@
       <c r="J110" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="K110" s="21"/>
-    </row>
-    <row r="111" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>286</v>
       </c>
@@ -6580,19 +6457,18 @@
       <c r="F111" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="G111" s="33">
+      <c r="G111" s="29">
         <v>22</v>
       </c>
-      <c r="H111" s="33">
+      <c r="H111" s="29">
         <v>25</v>
       </c>
       <c r="I111" s="3" t="s">
         <v>288</v>
       </c>
       <c r="J111" s="16"/>
-      <c r="K111" s="21"/>
-    </row>
-    <row r="112" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>289</v>
       </c>
@@ -6605,17 +6481,16 @@
       <c r="F112" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G112" s="33">
+      <c r="G112" s="29">
         <v>215</v>
       </c>
-      <c r="H112" s="33">
+      <c r="H112" s="29">
         <v>215</v>
       </c>
       <c r="I112" s="3"/>
       <c r="J112" s="16"/>
-      <c r="K112" s="21"/>
-    </row>
-    <row r="113" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>291</v>
       </c>
@@ -6628,17 +6503,16 @@
       <c r="F113" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G113" s="33">
+      <c r="G113" s="29">
         <v>215</v>
       </c>
-      <c r="H113" s="33">
+      <c r="H113" s="29">
         <v>215</v>
       </c>
       <c r="I113" s="3"/>
       <c r="J113" s="16"/>
-      <c r="K113" s="21"/>
-    </row>
-    <row r="114" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>293</v>
       </c>
@@ -6655,10 +6529,10 @@
       <c r="F114" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G114" s="33">
+      <c r="G114" s="29">
         <v>215</v>
       </c>
-      <c r="H114" s="33">
+      <c r="H114" s="29">
         <v>409</v>
       </c>
       <c r="I114" s="3" t="s">
@@ -6667,9 +6541,8 @@
       <c r="J114" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="K114" s="21"/>
-    </row>
-    <row r="115" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>297</v>
       </c>
@@ -6686,10 +6559,10 @@
       <c r="F115" s="4" t="s">
         <v>300</v>
       </c>
-      <c r="G115" s="33">
+      <c r="G115" s="29">
         <v>215</v>
       </c>
-      <c r="H115" s="33">
+      <c r="H115" s="29">
         <v>409</v>
       </c>
       <c r="I115" s="3" t="s">
@@ -6698,9 +6571,8 @@
       <c r="J115" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="K115" s="21"/>
-    </row>
-    <row r="116" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>301</v>
       </c>
@@ -6713,17 +6585,16 @@
       <c r="F116" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G116" s="33">
+      <c r="G116" s="29">
         <v>402</v>
       </c>
-      <c r="H116" s="33" t="s">
+      <c r="H116" s="29" t="s">
         <v>303</v>
       </c>
       <c r="I116" s="3"/>
       <c r="J116" s="16"/>
-      <c r="K116" s="21"/>
-    </row>
-    <row r="117" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>304</v>
       </c>
@@ -6740,10 +6611,10 @@
       <c r="F117" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="G117" s="33">
+      <c r="G117" s="29">
         <v>402</v>
       </c>
-      <c r="H117" s="33">
+      <c r="H117" s="29">
         <v>608</v>
       </c>
       <c r="I117" s="3" t="s">
@@ -6752,9 +6623,8 @@
       <c r="J117" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="K117" s="21"/>
-    </row>
-    <row r="118" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>308</v>
       </c>
@@ -6767,17 +6637,16 @@
       <c r="F118" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="G118" s="33">
+      <c r="G118" s="29">
         <v>402</v>
       </c>
-      <c r="H118" s="33">
+      <c r="H118" s="29">
         <v>608</v>
       </c>
       <c r="I118" s="3"/>
       <c r="J118" s="16"/>
-      <c r="K118" s="21"/>
-    </row>
-    <row r="119" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>310</v>
       </c>
@@ -6794,10 +6663,10 @@
       <c r="F119" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="G119" s="33">
+      <c r="G119" s="29">
         <v>402</v>
       </c>
-      <c r="H119" s="33">
+      <c r="H119" s="29">
         <v>608</v>
       </c>
       <c r="I119" s="3" t="s">
@@ -6806,9 +6675,8 @@
       <c r="J119" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="K119" s="21"/>
-    </row>
-    <row r="120" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>311</v>
       </c>
@@ -6823,10 +6691,10 @@
       <c r="F120" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="G120" s="33">
+      <c r="G120" s="29">
         <v>216</v>
       </c>
-      <c r="H120" s="33">
+      <c r="H120" s="29">
         <v>501</v>
       </c>
       <c r="I120" s="3" t="s">
@@ -6835,22 +6703,20 @@
       <c r="J120" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="K120" s="21"/>
-    </row>
-    <row r="121" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="2"/>
       <c r="B121" s="3"/>
       <c r="C121" s="6"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" s="4"/>
-      <c r="G121" s="33"/>
-      <c r="H121" s="33"/>
+      <c r="G121" s="29"/>
+      <c r="H121" s="29"/>
       <c r="I121" s="3"/>
       <c r="J121" s="16"/>
-      <c r="K121" s="21"/>
-    </row>
-    <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="7">
         <v>1</v>
       </c>
@@ -6867,10 +6733,10 @@
       <c r="F122" s="8">
         <v>5</v>
       </c>
-      <c r="G122" s="34">
+      <c r="G122" s="30">
         <v>6</v>
       </c>
-      <c r="H122" s="34">
+      <c r="H122" s="30">
         <v>7</v>
       </c>
       <c r="I122" s="8">
@@ -6879,9 +6745,8 @@
       <c r="J122" s="19">
         <v>9</v>
       </c>
-      <c r="K122" s="21"/>
-    </row>
-    <row r="123" spans="1:11" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:10" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>316</v>
       </c>
@@ -6896,10 +6761,10 @@
       <c r="F123" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="G123" s="33">
+      <c r="G123" s="29">
         <v>216</v>
       </c>
-      <c r="H123" s="33">
+      <c r="H123" s="29">
         <v>501</v>
       </c>
       <c r="I123" s="3" t="s">
@@ -6908,9 +6773,8 @@
       <c r="J123" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="K123" s="21"/>
-    </row>
-    <row r="124" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>317</v>
       </c>
@@ -6925,10 +6789,10 @@
       <c r="F124" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="G124" s="33">
+      <c r="G124" s="29">
         <v>216</v>
       </c>
-      <c r="H124" s="33">
+      <c r="H124" s="29">
         <v>501</v>
       </c>
       <c r="I124" s="3" t="s">
@@ -6937,9 +6801,8 @@
       <c r="J124" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="K124" s="21"/>
-    </row>
-    <row r="125" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>319</v>
       </c>
@@ -6954,10 +6817,10 @@
       <c r="F125" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="G125" s="33">
+      <c r="G125" s="29">
         <v>216</v>
       </c>
-      <c r="H125" s="33">
+      <c r="H125" s="29">
         <v>501</v>
       </c>
       <c r="I125" s="3" t="s">
@@ -6966,9 +6829,8 @@
       <c r="J125" s="16" t="s">
         <v>318</v>
       </c>
-      <c r="K125" s="21"/>
-    </row>
-    <row r="126" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>320</v>
       </c>
@@ -6983,10 +6845,10 @@
       <c r="F126" s="4" t="s">
         <v>313</v>
       </c>
-      <c r="G126" s="33">
+      <c r="G126" s="29">
         <v>216</v>
       </c>
-      <c r="H126" s="33">
+      <c r="H126" s="29">
         <v>501</v>
       </c>
       <c r="I126" s="3" t="s">
@@ -6995,9 +6857,8 @@
       <c r="J126" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="K126" s="21"/>
-    </row>
-    <row r="127" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>321</v>
       </c>
@@ -7014,10 +6875,10 @@
       <c r="F127" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G127" s="33">
+      <c r="G127" s="29">
         <v>216</v>
       </c>
-      <c r="H127" s="33">
+      <c r="H127" s="29">
         <v>501</v>
       </c>
       <c r="I127" s="3" t="s">
@@ -7026,9 +6887,8 @@
       <c r="J127" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="K127" s="21"/>
-    </row>
-    <row r="128" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>326</v>
       </c>
@@ -7045,10 +6905,10 @@
       <c r="F128" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G128" s="33">
+      <c r="G128" s="29">
         <v>216</v>
       </c>
-      <c r="H128" s="33">
+      <c r="H128" s="29">
         <v>501</v>
       </c>
       <c r="I128" s="3" t="s">
@@ -7057,9 +6917,8 @@
       <c r="J128" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="K128" s="21"/>
-    </row>
-    <row r="129" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>330</v>
       </c>
@@ -7076,10 +6935,10 @@
       <c r="F129" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="G129" s="33">
+      <c r="G129" s="29">
         <v>216</v>
       </c>
-      <c r="H129" s="33">
+      <c r="H129" s="29">
         <v>501</v>
       </c>
       <c r="I129" s="3" t="s">
@@ -7088,9 +6947,8 @@
       <c r="J129" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="K129" s="21"/>
-    </row>
-    <row r="130" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>334</v>
       </c>
@@ -7107,10 +6965,10 @@
       <c r="F130" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="G130" s="33">
+      <c r="G130" s="29">
         <v>216</v>
       </c>
-      <c r="H130" s="33">
+      <c r="H130" s="29">
         <v>501</v>
       </c>
       <c r="I130" s="3" t="s">
@@ -7119,9 +6977,8 @@
       <c r="J130" s="17" t="s">
         <v>325</v>
       </c>
-      <c r="K130" s="21"/>
-    </row>
-    <row r="131" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>337</v>
       </c>
@@ -7138,10 +6995,10 @@
       <c r="F131" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="G131" s="33">
+      <c r="G131" s="29">
         <v>216</v>
       </c>
-      <c r="H131" s="33">
+      <c r="H131" s="29">
         <v>501</v>
       </c>
       <c r="I131" s="3" t="s">
@@ -7150,9 +7007,8 @@
       <c r="J131" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="K131" s="21"/>
-    </row>
-    <row r="132" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>342</v>
       </c>
@@ -7169,10 +7025,10 @@
       <c r="F132" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="G132" s="33">
+      <c r="G132" s="29">
         <v>216</v>
       </c>
-      <c r="H132" s="33">
+      <c r="H132" s="29">
         <v>501</v>
       </c>
       <c r="I132" s="3" t="s">
@@ -7181,9 +7037,8 @@
       <c r="J132" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="K132" s="21"/>
-    </row>
-    <row r="133" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>344</v>
       </c>
@@ -7200,10 +7055,10 @@
       <c r="F133" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="G133" s="33">
+      <c r="G133" s="29">
         <v>216</v>
       </c>
-      <c r="H133" s="33">
+      <c r="H133" s="29">
         <v>501</v>
       </c>
       <c r="I133" s="3" t="s">
@@ -7212,9 +7067,8 @@
       <c r="J133" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="K133" s="21"/>
-    </row>
-    <row r="134" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>346</v>
       </c>
@@ -7231,10 +7085,10 @@
       <c r="F134" s="4" t="s">
         <v>336</v>
       </c>
-      <c r="G134" s="33">
+      <c r="G134" s="29">
         <v>216</v>
       </c>
-      <c r="H134" s="33">
+      <c r="H134" s="29">
         <v>501</v>
       </c>
       <c r="I134" s="3" t="s">
@@ -7243,9 +7097,8 @@
       <c r="J134" s="17" t="s">
         <v>343</v>
       </c>
-      <c r="K134" s="21"/>
-    </row>
-    <row r="135" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>348</v>
       </c>
@@ -7260,10 +7113,10 @@
       <c r="F135" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G135" s="33">
+      <c r="G135" s="29">
         <v>216</v>
       </c>
-      <c r="H135" s="33">
+      <c r="H135" s="29">
         <v>216</v>
       </c>
       <c r="I135" s="3" t="s">
@@ -7272,9 +7125,8 @@
       <c r="J135" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="K135" s="21"/>
-    </row>
-    <row r="136" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="2" t="s">
         <v>353</v>
       </c>
@@ -7289,10 +7141,10 @@
       <c r="F136" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G136" s="33">
+      <c r="G136" s="29">
         <v>216</v>
       </c>
-      <c r="H136" s="33">
+      <c r="H136" s="29">
         <v>216</v>
       </c>
       <c r="I136" s="3" t="s">
@@ -7301,9 +7153,8 @@
       <c r="J136" s="16" t="s">
         <v>355</v>
       </c>
-      <c r="K136" s="21"/>
-    </row>
-    <row r="137" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="2" t="s">
         <v>356</v>
       </c>
@@ -7320,10 +7171,10 @@
       <c r="F137" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="G137" s="33">
+      <c r="G137" s="29">
         <v>107</v>
       </c>
-      <c r="H137" s="33">
+      <c r="H137" s="29">
         <v>409</v>
       </c>
       <c r="I137" s="3" t="s">
@@ -7332,9 +7183,8 @@
       <c r="J137" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="K137" s="21"/>
-    </row>
-    <row r="138" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="2" t="s">
         <v>361</v>
       </c>
@@ -7351,10 +7201,10 @@
       <c r="F138" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="G138" s="33">
+      <c r="G138" s="29">
         <v>107</v>
       </c>
-      <c r="H138" s="33">
+      <c r="H138" s="29">
         <v>409</v>
       </c>
       <c r="I138" s="3" t="s">
@@ -7363,9 +7213,8 @@
       <c r="J138" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="K138" s="21"/>
-    </row>
-    <row r="139" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="2" t="s">
         <v>365</v>
       </c>
@@ -7382,10 +7231,10 @@
       <c r="F139" s="4" t="s">
         <v>367</v>
       </c>
-      <c r="G139" s="33">
+      <c r="G139" s="29">
         <v>107</v>
       </c>
-      <c r="H139" s="33">
+      <c r="H139" s="29">
         <v>409</v>
       </c>
       <c r="I139" s="3" t="s">
@@ -7394,9 +7243,8 @@
       <c r="J139" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="K139" s="21"/>
-    </row>
-    <row r="140" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="2" t="s">
         <v>368</v>
       </c>
@@ -7413,10 +7261,10 @@
       <c r="F140" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="G140" s="33">
+      <c r="G140" s="29">
         <v>107</v>
       </c>
-      <c r="H140" s="33">
+      <c r="H140" s="29">
         <v>409</v>
       </c>
       <c r="I140" s="3" t="s">
@@ -7425,9 +7273,8 @@
       <c r="J140" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="K140" s="21"/>
-    </row>
-    <row r="141" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="2" t="s">
         <v>371</v>
       </c>
@@ -7444,10 +7291,10 @@
       <c r="F141" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="G141" s="33">
+      <c r="G141" s="29">
         <v>216</v>
       </c>
-      <c r="H141" s="33">
+      <c r="H141" s="29">
         <v>409</v>
       </c>
       <c r="I141" s="3" t="s">
@@ -7456,9 +7303,8 @@
       <c r="J141" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="K141" s="21"/>
-    </row>
-    <row r="142" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="2" t="s">
         <v>376</v>
       </c>
@@ -7475,10 +7321,10 @@
       <c r="F142" s="4" t="s">
         <v>379</v>
       </c>
-      <c r="G142" s="33">
+      <c r="G142" s="29">
         <v>216</v>
       </c>
-      <c r="H142" s="33">
+      <c r="H142" s="29">
         <v>409</v>
       </c>
       <c r="I142" s="3" t="s">
@@ -7487,9 +7333,8 @@
       <c r="J142" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="K142" s="21"/>
-    </row>
-    <row r="143" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="2" t="s">
         <v>380</v>
       </c>
@@ -7506,10 +7351,10 @@
       <c r="F143" s="4" t="s">
         <v>383</v>
       </c>
-      <c r="G143" s="33">
+      <c r="G143" s="29">
         <v>216</v>
       </c>
-      <c r="H143" s="33">
+      <c r="H143" s="29">
         <v>409</v>
       </c>
       <c r="I143" s="3" t="s">
@@ -7518,9 +7363,8 @@
       <c r="J143" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="K143" s="21"/>
-    </row>
-    <row r="144" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>384</v>
       </c>
@@ -7537,10 +7381,10 @@
       <c r="F144" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="G144" s="33">
+      <c r="G144" s="29">
         <v>216</v>
       </c>
-      <c r="H144" s="33">
+      <c r="H144" s="29">
         <v>409</v>
       </c>
       <c r="I144" s="3" t="s">
@@ -7549,9 +7393,8 @@
       <c r="J144" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="K144" s="21"/>
-    </row>
-    <row r="145" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="2" t="s">
         <v>388</v>
       </c>
@@ -7568,10 +7411,10 @@
       <c r="F145" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="G145" s="33">
+      <c r="G145" s="29">
         <v>25</v>
       </c>
-      <c r="H145" s="33">
+      <c r="H145" s="29">
         <v>25</v>
       </c>
       <c r="I145" s="3" t="s">
@@ -7580,9 +7423,8 @@
       <c r="J145" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="K145" s="21"/>
-    </row>
-    <row r="146" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="2" t="s">
         <v>392</v>
       </c>
@@ -7599,10 +7441,10 @@
       <c r="F146" s="4" t="s">
         <v>394</v>
       </c>
-      <c r="G146" s="33">
+      <c r="G146" s="29">
         <v>25</v>
       </c>
-      <c r="H146" s="33">
+      <c r="H146" s="29">
         <v>25</v>
       </c>
       <c r="I146" s="3" t="s">
@@ -7611,9 +7453,8 @@
       <c r="J146" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="K146" s="21"/>
-    </row>
-    <row r="147" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="2" t="s">
         <v>395</v>
       </c>
@@ -7628,10 +7469,10 @@
       <c r="F147" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="G147" s="33" t="s">
+      <c r="G147" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H147" s="33" t="s">
+      <c r="H147" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I147" s="3" t="s">
@@ -7640,9 +7481,8 @@
       <c r="J147" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="K147" s="21"/>
-    </row>
-    <row r="148" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="2" t="s">
         <v>399</v>
       </c>
@@ -7657,10 +7497,10 @@
       <c r="F148" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="G148" s="33" t="s">
+      <c r="G148" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H148" s="33" t="s">
+      <c r="H148" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I148" s="3" t="s">
@@ -7669,9 +7509,8 @@
       <c r="J148" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="K148" s="21"/>
-    </row>
-    <row r="149" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>400</v>
       </c>
@@ -7684,17 +7523,16 @@
       <c r="F149" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="G149" s="33" t="s">
+      <c r="G149" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H149" s="33" t="s">
+      <c r="H149" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I149" s="3"/>
       <c r="J149" s="16"/>
-      <c r="K149" s="21"/>
-    </row>
-    <row r="150" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="2" t="s">
         <v>402</v>
       </c>
@@ -7707,17 +7545,16 @@
       <c r="F150" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="G150" s="33" t="s">
+      <c r="G150" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H150" s="33" t="s">
+      <c r="H150" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I150" s="3"/>
       <c r="J150" s="16"/>
-      <c r="K150" s="21"/>
-    </row>
-    <row r="151" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="2" t="s">
         <v>404</v>
       </c>
@@ -7730,17 +7567,16 @@
       <c r="F151" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="G151" s="33" t="s">
+      <c r="G151" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H151" s="33" t="s">
+      <c r="H151" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I151" s="3"/>
       <c r="J151" s="16"/>
-      <c r="K151" s="21"/>
-    </row>
-    <row r="152" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="2" t="s">
         <v>405</v>
       </c>
@@ -7757,10 +7593,10 @@
       <c r="F152" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="G152" s="33">
+      <c r="G152" s="29">
         <v>25</v>
       </c>
-      <c r="H152" s="33">
+      <c r="H152" s="29">
         <v>25</v>
       </c>
       <c r="I152" s="3" t="s">
@@ -7769,9 +7605,8 @@
       <c r="J152" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="K152" s="21"/>
-    </row>
-    <row r="153" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="2" t="s">
         <v>409</v>
       </c>
@@ -7788,10 +7623,10 @@
       <c r="F153" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="G153" s="33">
+      <c r="G153" s="29">
         <v>25</v>
       </c>
-      <c r="H153" s="33">
+      <c r="H153" s="29">
         <v>25</v>
       </c>
       <c r="I153" s="3" t="s">
@@ -7800,9 +7635,8 @@
       <c r="J153" s="16" t="s">
         <v>408</v>
       </c>
-      <c r="K153" s="21"/>
-    </row>
-    <row r="154" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="2" t="s">
         <v>412</v>
       </c>
@@ -7819,10 +7653,10 @@
       <c r="F154" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="G154" s="33">
+      <c r="G154" s="29">
         <v>25</v>
       </c>
-      <c r="H154" s="33">
+      <c r="H154" s="29">
         <v>25</v>
       </c>
       <c r="I154" s="3" t="s">
@@ -7831,9 +7665,8 @@
       <c r="J154" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="K154" s="21"/>
-    </row>
-    <row r="155" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="2" t="s">
         <v>416</v>
       </c>
@@ -7850,10 +7683,10 @@
       <c r="F155" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="G155" s="33">
+      <c r="G155" s="29">
         <v>25</v>
       </c>
-      <c r="H155" s="33">
+      <c r="H155" s="29">
         <v>25</v>
       </c>
       <c r="I155" s="3" t="s">
@@ -7862,9 +7695,8 @@
       <c r="J155" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="K155" s="21"/>
-    </row>
-    <row r="156" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>419</v>
       </c>
@@ -7877,17 +7709,16 @@
       <c r="F156" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="G156" s="33">
+      <c r="G156" s="29">
         <v>25</v>
       </c>
-      <c r="H156" s="33">
+      <c r="H156" s="29">
         <v>25</v>
       </c>
       <c r="I156" s="3"/>
       <c r="J156" s="16"/>
-      <c r="K156" s="21"/>
-    </row>
-    <row r="157" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>421</v>
       </c>
@@ -7900,17 +7731,16 @@
       <c r="F157" s="4" t="s">
         <v>422</v>
       </c>
-      <c r="G157" s="33">
+      <c r="G157" s="29">
         <v>25</v>
       </c>
-      <c r="H157" s="33">
+      <c r="H157" s="29">
         <v>25</v>
       </c>
       <c r="I157" s="3"/>
       <c r="J157" s="16"/>
-      <c r="K157" s="21"/>
-    </row>
-    <row r="158" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>423</v>
       </c>
@@ -7927,10 +7757,10 @@
       <c r="F158" s="4" t="s">
         <v>425</v>
       </c>
-      <c r="G158" s="33">
+      <c r="G158" s="29">
         <v>25</v>
       </c>
-      <c r="H158" s="33">
+      <c r="H158" s="29">
         <v>25</v>
       </c>
       <c r="I158" s="3" t="s">
@@ -7939,9 +7769,8 @@
       <c r="J158" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="K158" s="21"/>
-    </row>
-    <row r="159" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="2" t="s">
         <v>427</v>
       </c>
@@ -7958,10 +7787,10 @@
       <c r="F159" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="G159" s="33">
+      <c r="G159" s="29">
         <v>25</v>
       </c>
-      <c r="H159" s="33">
+      <c r="H159" s="29">
         <v>25</v>
       </c>
       <c r="I159" s="3" t="s">
@@ -7970,9 +7799,8 @@
       <c r="J159" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="K159" s="21"/>
-    </row>
-    <row r="160" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>430</v>
       </c>
@@ -7989,10 +7817,10 @@
       <c r="F160" s="4" t="s">
         <v>432</v>
       </c>
-      <c r="G160" s="33">
+      <c r="G160" s="29">
         <v>25</v>
       </c>
-      <c r="H160" s="33">
+      <c r="H160" s="29">
         <v>25</v>
       </c>
       <c r="I160" s="3" t="s">
@@ -8001,9 +7829,8 @@
       <c r="J160" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="K160" s="21"/>
-    </row>
-    <row r="161" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="2" t="s">
         <v>434</v>
       </c>
@@ -8020,10 +7847,10 @@
       <c r="F161" s="4" t="s">
         <v>436</v>
       </c>
-      <c r="G161" s="33">
+      <c r="G161" s="29">
         <v>25</v>
       </c>
-      <c r="H161" s="33">
+      <c r="H161" s="29">
         <v>25</v>
       </c>
       <c r="I161" s="3" t="s">
@@ -8032,14 +7859,12 @@
       <c r="J161" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="K161" s="21"/>
-    </row>
-    <row r="162" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
-      <c r="K162" s="21"/>
-    </row>
-    <row r="163" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="12">
         <v>1</v>
       </c>
@@ -8056,10 +7881,10 @@
       <c r="F163" s="13">
         <v>5</v>
       </c>
-      <c r="G163" s="36">
+      <c r="G163" s="32">
         <v>6</v>
       </c>
-      <c r="H163" s="36">
+      <c r="H163" s="32">
         <v>7</v>
       </c>
       <c r="I163" s="13">
@@ -8068,9 +7893,8 @@
       <c r="J163" s="20">
         <v>9</v>
       </c>
-      <c r="K163" s="21"/>
-    </row>
-    <row r="164" spans="1:11" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="1:10" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="2" t="s">
         <v>437</v>
       </c>
@@ -8083,17 +7907,16 @@
       <c r="F164" s="4" t="s">
         <v>438</v>
       </c>
-      <c r="G164" s="33">
+      <c r="G164" s="29">
         <v>25</v>
       </c>
-      <c r="H164" s="33">
+      <c r="H164" s="29">
         <v>25</v>
       </c>
       <c r="I164" s="3"/>
       <c r="J164" s="16"/>
-      <c r="K164" s="21"/>
-    </row>
-    <row r="165" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="2" t="s">
         <v>439</v>
       </c>
@@ -8106,17 +7929,16 @@
       <c r="F165" s="4" t="s">
         <v>440</v>
       </c>
-      <c r="G165" s="33">
+      <c r="G165" s="29">
         <v>25</v>
       </c>
-      <c r="H165" s="33">
+      <c r="H165" s="29">
         <v>25</v>
       </c>
       <c r="I165" s="3"/>
       <c r="J165" s="16"/>
-      <c r="K165" s="21"/>
-    </row>
-    <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="10" t="s">
         <v>441</v>
       </c>
@@ -8129,17 +7951,16 @@
       <c r="F166" s="4" t="s">
         <v>442</v>
       </c>
-      <c r="G166" s="33">
+      <c r="G166" s="29">
         <v>216</v>
       </c>
-      <c r="H166" s="33">
+      <c r="H166" s="29">
         <v>501</v>
       </c>
       <c r="I166" s="3"/>
       <c r="J166" s="16"/>
-      <c r="K166" s="21"/>
-    </row>
-    <row r="167" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>443</v>
       </c>
@@ -8152,17 +7973,16 @@
       <c r="F167" s="4" t="s">
         <v>444</v>
       </c>
-      <c r="G167" s="33">
+      <c r="G167" s="29">
         <v>216</v>
       </c>
-      <c r="H167" s="33">
+      <c r="H167" s="29">
         <v>216</v>
       </c>
       <c r="I167" s="3"/>
       <c r="J167" s="16"/>
-      <c r="K167" s="21"/>
-    </row>
-    <row r="168" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>445</v>
       </c>
@@ -8177,17 +7997,16 @@
       <c r="F168" s="4" t="s">
         <v>446</v>
       </c>
-      <c r="G168" s="33">
+      <c r="G168" s="29">
         <v>216</v>
       </c>
-      <c r="H168" s="33">
+      <c r="H168" s="29">
         <v>216</v>
       </c>
       <c r="I168" s="3"/>
       <c r="J168" s="16"/>
-      <c r="K168" s="21"/>
-    </row>
-    <row r="169" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>447</v>
       </c>
@@ -8200,17 +8019,16 @@
       <c r="F169" s="4" t="s">
         <v>448</v>
       </c>
-      <c r="G169" s="33">
+      <c r="G169" s="29">
         <v>216</v>
       </c>
-      <c r="H169" s="33">
+      <c r="H169" s="29">
         <v>409</v>
       </c>
       <c r="I169" s="3"/>
       <c r="J169" s="16"/>
-      <c r="K169" s="21"/>
-    </row>
-    <row r="170" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>449</v>
       </c>
@@ -8223,17 +8041,16 @@
       <c r="F170" s="4" t="s">
         <v>450</v>
       </c>
-      <c r="G170" s="33">
+      <c r="G170" s="29">
         <v>21</v>
       </c>
-      <c r="H170" s="33">
+      <c r="H170" s="29">
         <v>25</v>
       </c>
       <c r="I170" s="3"/>
       <c r="J170" s="16"/>
-      <c r="K170" s="21"/>
-    </row>
-    <row r="171" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="2" t="s">
         <v>451</v>
       </c>
@@ -8246,17 +8063,16 @@
       <c r="F171" s="4" t="s">
         <v>452</v>
       </c>
-      <c r="G171" s="33">
+      <c r="G171" s="29">
         <v>21</v>
       </c>
-      <c r="H171" s="33">
+      <c r="H171" s="29">
         <v>216</v>
       </c>
       <c r="I171" s="3"/>
       <c r="J171" s="16"/>
-      <c r="K171" s="21"/>
-    </row>
-    <row r="172" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="2" t="s">
         <v>453</v>
       </c>
@@ -8269,17 +8085,16 @@
       <c r="F172" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="G172" s="33">
+      <c r="G172" s="29">
         <v>21</v>
       </c>
-      <c r="H172" s="33">
+      <c r="H172" s="29">
         <v>21</v>
       </c>
       <c r="I172" s="3"/>
       <c r="J172" s="16"/>
-      <c r="K172" s="21"/>
-    </row>
-    <row r="173" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="2" t="s">
         <v>455</v>
       </c>
@@ -8292,17 +8107,16 @@
       <c r="F173" s="4" t="s">
         <v>456</v>
       </c>
-      <c r="G173" s="33">
+      <c r="G173" s="29">
         <v>21</v>
       </c>
-      <c r="H173" s="33">
+      <c r="H173" s="29">
         <v>21</v>
       </c>
       <c r="I173" s="3"/>
       <c r="J173" s="16"/>
-      <c r="K173" s="21"/>
-    </row>
-    <row r="174" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="2" t="s">
         <v>457</v>
       </c>
@@ -8315,17 +8129,16 @@
       <c r="F174" s="4" t="s">
         <v>454</v>
       </c>
-      <c r="G174" s="33">
+      <c r="G174" s="29">
         <v>21</v>
       </c>
-      <c r="H174" s="33">
+      <c r="H174" s="29">
         <v>21</v>
       </c>
       <c r="I174" s="3"/>
       <c r="J174" s="16"/>
-      <c r="K174" s="21"/>
-    </row>
-    <row r="175" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="2" t="s">
         <v>458</v>
       </c>
@@ -8342,10 +8155,10 @@
       <c r="F175" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="G175" s="33">
+      <c r="G175" s="29">
         <v>107</v>
       </c>
-      <c r="H175" s="33">
+      <c r="H175" s="29">
         <v>409</v>
       </c>
       <c r="I175" s="3" t="s">
@@ -8354,9 +8167,8 @@
       <c r="J175" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="K175" s="21"/>
-    </row>
-    <row r="176" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>462</v>
       </c>
@@ -8373,10 +8185,10 @@
       <c r="F176" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="G176" s="33">
+      <c r="G176" s="29">
         <v>22</v>
       </c>
-      <c r="H176" s="33">
+      <c r="H176" s="29">
         <v>25</v>
       </c>
       <c r="I176" s="3" t="s">
@@ -8385,9 +8197,8 @@
       <c r="J176" s="16" t="s">
         <v>464</v>
       </c>
-      <c r="K176" s="21"/>
-    </row>
-    <row r="177" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="2" t="s">
         <v>465</v>
       </c>
@@ -8404,10 +8215,10 @@
       <c r="F177" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="G177" s="33">
+      <c r="G177" s="29">
         <v>22</v>
       </c>
-      <c r="H177" s="33">
+      <c r="H177" s="29">
         <v>25</v>
       </c>
       <c r="I177" s="3" t="s">
@@ -8416,9 +8227,8 @@
       <c r="J177" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="K177" s="21"/>
-    </row>
-    <row r="178" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="2" t="s">
         <v>467</v>
       </c>
@@ -8435,10 +8245,10 @@
       <c r="F178" s="4" t="s">
         <v>466</v>
       </c>
-      <c r="G178" s="33">
+      <c r="G178" s="29">
         <v>22</v>
       </c>
-      <c r="H178" s="33">
+      <c r="H178" s="29">
         <v>25</v>
       </c>
       <c r="I178" s="3" t="s">
@@ -8447,9 +8257,8 @@
       <c r="J178" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="K178" s="21"/>
-    </row>
-    <row r="179" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="2" t="s">
         <v>469</v>
       </c>
@@ -8462,17 +8271,16 @@
       <c r="F179" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="G179" s="33">
+      <c r="G179" s="29">
         <v>7</v>
       </c>
-      <c r="H179" s="33">
+      <c r="H179" s="29">
         <v>7</v>
       </c>
       <c r="I179" s="3"/>
       <c r="J179" s="16"/>
-      <c r="K179" s="21"/>
-    </row>
-    <row r="180" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="2" t="s">
         <v>471</v>
       </c>
@@ -8485,17 +8293,16 @@
       <c r="F180" s="4" t="s">
         <v>470</v>
       </c>
-      <c r="G180" s="33">
+      <c r="G180" s="29">
         <v>7</v>
       </c>
-      <c r="H180" s="33">
+      <c r="H180" s="29">
         <v>7</v>
       </c>
       <c r="I180" s="3"/>
       <c r="J180" s="16"/>
-      <c r="K180" s="21"/>
-    </row>
-    <row r="181" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="2" t="s">
         <v>472</v>
       </c>
@@ -8508,17 +8315,16 @@
       <c r="F181" s="4" t="s">
         <v>473</v>
       </c>
-      <c r="G181" s="33">
+      <c r="G181" s="29">
         <v>8</v>
       </c>
-      <c r="H181" s="33">
+      <c r="H181" s="29">
         <v>8</v>
       </c>
       <c r="I181" s="3"/>
       <c r="J181" s="16"/>
-      <c r="K181" s="21"/>
-    </row>
-    <row r="182" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="2" t="s">
         <v>474</v>
       </c>
@@ -8531,17 +8337,16 @@
       <c r="F182" s="4" t="s">
         <v>475</v>
       </c>
-      <c r="G182" s="33">
+      <c r="G182" s="29">
         <v>402</v>
       </c>
-      <c r="H182" s="33">
+      <c r="H182" s="29">
         <v>401</v>
       </c>
       <c r="I182" s="3"/>
       <c r="J182" s="16"/>
-      <c r="K182" s="21"/>
-    </row>
-    <row r="183" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="2" t="s">
         <v>476</v>
       </c>
@@ -8554,17 +8359,16 @@
       <c r="F183" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="G183" s="33">
+      <c r="G183" s="29">
         <v>401</v>
       </c>
-      <c r="H183" s="33">
+      <c r="H183" s="29">
         <v>401</v>
       </c>
       <c r="I183" s="3"/>
       <c r="J183" s="16"/>
-      <c r="K183" s="21"/>
-    </row>
-    <row r="184" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>478</v>
       </c>
@@ -8581,10 +8385,10 @@
       <c r="F184" s="4" t="s">
         <v>477</v>
       </c>
-      <c r="G184" s="33">
+      <c r="G184" s="29">
         <v>401</v>
       </c>
-      <c r="H184" s="33">
+      <c r="H184" s="29">
         <v>401</v>
       </c>
       <c r="I184" s="3" t="s">
@@ -8593,9 +8397,8 @@
       <c r="J184" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="K184" s="21"/>
-    </row>
-    <row r="185" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="2" t="s">
         <v>483</v>
       </c>
@@ -8612,10 +8415,10 @@
       <c r="F185" s="4" t="s">
         <v>484</v>
       </c>
-      <c r="G185" s="33">
+      <c r="G185" s="29">
         <v>209</v>
       </c>
-      <c r="H185" s="33">
+      <c r="H185" s="29">
         <v>401</v>
       </c>
       <c r="I185" s="3" t="s">
@@ -8624,9 +8427,8 @@
       <c r="J185" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="K185" s="21"/>
-    </row>
-    <row r="186" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="2" t="s">
         <v>485</v>
       </c>
@@ -8639,17 +8441,16 @@
       <c r="F186" s="4" t="s">
         <v>486</v>
       </c>
-      <c r="G186" s="33">
+      <c r="G186" s="29">
         <v>215</v>
       </c>
-      <c r="H186" s="33">
+      <c r="H186" s="29">
         <v>409</v>
       </c>
       <c r="I186" s="3"/>
       <c r="J186" s="16"/>
-      <c r="K186" s="21"/>
-    </row>
-    <row r="187" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="2" t="s">
         <v>487</v>
       </c>
@@ -8666,10 +8467,10 @@
       <c r="F187" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="G187" s="33" t="s">
+      <c r="G187" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H187" s="33" t="s">
+      <c r="H187" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I187" s="3" t="s">
@@ -8678,9 +8479,8 @@
       <c r="J187" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="K187" s="21"/>
-    </row>
-    <row r="188" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="2" t="s">
         <v>491</v>
       </c>
@@ -8697,10 +8497,10 @@
       <c r="F188" s="4" t="s">
         <v>494</v>
       </c>
-      <c r="G188" s="33" t="s">
+      <c r="G188" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="H188" s="33" t="s">
+      <c r="H188" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I188" s="3" t="s">
@@ -8709,9 +8509,8 @@
       <c r="J188" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="K188" s="21"/>
-    </row>
-    <row r="189" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="2" t="s">
         <v>495</v>
       </c>
@@ -8728,10 +8527,10 @@
       <c r="F189" s="4" t="s">
         <v>497</v>
       </c>
-      <c r="G189" s="33">
+      <c r="G189" s="29">
         <v>107</v>
       </c>
-      <c r="H189" s="33">
+      <c r="H189" s="29">
         <v>409</v>
       </c>
       <c r="I189" s="3" t="s">
@@ -8740,9 +8539,8 @@
       <c r="J189" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="K189" s="21"/>
-    </row>
-    <row r="190" spans="1:11" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:10" ht="32.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="2" t="s">
         <v>499</v>
       </c>
@@ -8759,10 +8557,10 @@
       <c r="F190" s="4" t="s">
         <v>500</v>
       </c>
-      <c r="G190" s="33">
+      <c r="G190" s="29">
         <v>317</v>
       </c>
-      <c r="H190" s="33">
+      <c r="H190" s="29">
         <v>317</v>
       </c>
       <c r="I190" s="3" t="s">
@@ -8771,9 +8569,8 @@
       <c r="J190" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="K190" s="21"/>
-    </row>
-    <row r="191" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="2" t="s">
         <v>501</v>
       </c>
@@ -8786,17 +8583,16 @@
       <c r="F191" s="4" t="s">
         <v>502</v>
       </c>
-      <c r="G191" s="33">
+      <c r="G191" s="29">
         <v>317</v>
       </c>
-      <c r="H191" s="33">
+      <c r="H191" s="29">
         <v>317</v>
       </c>
       <c r="I191" s="3"/>
       <c r="J191" s="16"/>
-      <c r="K191" s="21"/>
-    </row>
-    <row r="192" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="2" t="s">
         <v>503</v>
       </c>
@@ -8809,17 +8605,16 @@
       <c r="F192" s="4" t="s">
         <v>504</v>
       </c>
-      <c r="G192" s="33">
+      <c r="G192" s="29">
         <v>501</v>
       </c>
-      <c r="H192" s="33">
+      <c r="H192" s="29">
         <v>501</v>
       </c>
       <c r="I192" s="3"/>
       <c r="J192" s="16"/>
-      <c r="K192" s="21"/>
-    </row>
-    <row r="193" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>505</v>
       </c>
@@ -8832,17 +8627,16 @@
       <c r="F193" s="4" t="s">
         <v>506</v>
       </c>
-      <c r="G193" s="33">
+      <c r="G193" s="29">
         <v>501</v>
       </c>
-      <c r="H193" s="33">
+      <c r="H193" s="29">
         <v>501</v>
       </c>
       <c r="I193" s="3"/>
       <c r="J193" s="16"/>
-      <c r="K193" s="21"/>
-    </row>
-    <row r="194" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>507</v>
       </c>
@@ -8855,17 +8649,16 @@
       <c r="F194" s="4" t="s">
         <v>508</v>
       </c>
-      <c r="G194" s="33">
+      <c r="G194" s="29">
         <v>501</v>
       </c>
-      <c r="H194" s="33">
+      <c r="H194" s="29">
         <v>501</v>
       </c>
       <c r="I194" s="3"/>
       <c r="J194" s="16"/>
-      <c r="K194" s="21"/>
-    </row>
-    <row r="195" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>509</v>
       </c>
@@ -8878,17 +8671,16 @@
       <c r="F195" s="4" t="s">
         <v>510</v>
       </c>
-      <c r="G195" s="33">
+      <c r="G195" s="29">
         <v>501</v>
       </c>
-      <c r="H195" s="33">
+      <c r="H195" s="29">
         <v>501</v>
       </c>
       <c r="I195" s="3"/>
       <c r="J195" s="16"/>
-      <c r="K195" s="21"/>
-    </row>
-    <row r="196" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>511</v>
       </c>
@@ -8901,17 +8693,16 @@
       <c r="F196" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="G196" s="33">
+      <c r="G196" s="29">
         <v>501</v>
       </c>
-      <c r="H196" s="33">
+      <c r="H196" s="29">
         <v>501</v>
       </c>
       <c r="I196" s="3"/>
       <c r="J196" s="16"/>
-      <c r="K196" s="21"/>
-    </row>
-    <row r="197" spans="1:11" ht="36" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:10" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>513</v>
       </c>
@@ -8924,17 +8715,16 @@
       <c r="F197" s="4" t="s">
         <v>514</v>
       </c>
-      <c r="G197" s="33">
+      <c r="G197" s="29">
         <v>501</v>
       </c>
-      <c r="H197" s="33">
+      <c r="H197" s="29">
         <v>501</v>
       </c>
       <c r="I197" s="3"/>
       <c r="J197" s="16"/>
-      <c r="K197" s="21"/>
-    </row>
-    <row r="198" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>515</v>
       </c>
@@ -8947,17 +8737,16 @@
       <c r="F198" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="G198" s="33">
+      <c r="G198" s="29">
         <v>107</v>
       </c>
-      <c r="H198" s="33">
+      <c r="H198" s="29">
         <v>409</v>
       </c>
       <c r="I198" s="3"/>
       <c r="J198" s="16"/>
-      <c r="K198" s="21"/>
-    </row>
-    <row r="199" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>517</v>
       </c>
@@ -8970,17 +8759,16 @@
       <c r="F199" s="4" t="s">
         <v>461</v>
       </c>
-      <c r="G199" s="33">
+      <c r="G199" s="29">
         <v>107</v>
       </c>
-      <c r="H199" s="33">
+      <c r="H199" s="29">
         <v>107</v>
       </c>
       <c r="I199" s="3"/>
       <c r="J199" s="16"/>
-      <c r="K199" s="21"/>
-    </row>
-    <row r="200" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>518</v>
       </c>
@@ -8991,17 +8779,16 @@
       <c r="F200" s="4" t="s">
         <v>519</v>
       </c>
-      <c r="G200" s="33">
+      <c r="G200" s="29">
         <v>402</v>
       </c>
-      <c r="H200" s="33">
+      <c r="H200" s="29">
         <v>402</v>
       </c>
       <c r="I200" s="3"/>
       <c r="J200" s="16"/>
-      <c r="K200" s="21"/>
-    </row>
-    <row r="201" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>520</v>
       </c>
@@ -9014,17 +8801,16 @@
       <c r="F201" s="4" t="s">
         <v>521</v>
       </c>
-      <c r="G201" s="33">
+      <c r="G201" s="29">
         <v>25</v>
       </c>
-      <c r="H201" s="33">
+      <c r="H201" s="29">
         <v>25</v>
       </c>
       <c r="I201" s="3"/>
       <c r="J201" s="16"/>
-      <c r="K201" s="21"/>
-    </row>
-    <row r="202" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>522</v>
       </c>
@@ -9037,17 +8823,16 @@
       <c r="F202" s="4" t="s">
         <v>523</v>
       </c>
-      <c r="G202" s="33">
+      <c r="G202" s="29">
         <v>11</v>
       </c>
-      <c r="H202" s="33">
+      <c r="H202" s="29">
         <v>12</v>
       </c>
       <c r="I202" s="3"/>
       <c r="J202" s="16"/>
-      <c r="K202" s="21"/>
-    </row>
-    <row r="203" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>524</v>
       </c>
@@ -9060,17 +8845,16 @@
       <c r="F203" s="4" t="s">
         <v>525</v>
       </c>
-      <c r="G203" s="33">
+      <c r="G203" s="29">
         <v>11</v>
       </c>
-      <c r="H203" s="33">
+      <c r="H203" s="29">
         <v>11</v>
       </c>
       <c r="I203" s="3"/>
       <c r="J203" s="16"/>
-      <c r="K203" s="21"/>
-    </row>
-    <row r="204" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>526</v>
       </c>
@@ -9083,17 +8867,16 @@
       <c r="F204" s="4" t="s">
         <v>527</v>
       </c>
-      <c r="G204" s="33">
+      <c r="G204" s="29">
         <v>11</v>
       </c>
-      <c r="H204" s="33">
+      <c r="H204" s="29">
         <v>12</v>
       </c>
       <c r="I204" s="3"/>
       <c r="J204" s="16"/>
-      <c r="K204" s="21"/>
-    </row>
-    <row r="205" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="2" t="s">
         <v>528</v>
       </c>
@@ -9106,17 +8889,16 @@
       <c r="F205" s="4" t="s">
         <v>529</v>
       </c>
-      <c r="G205" s="33">
+      <c r="G205" s="29">
         <v>11</v>
       </c>
-      <c r="H205" s="33">
+      <c r="H205" s="29">
         <v>11</v>
       </c>
       <c r="I205" s="3"/>
       <c r="J205" s="16"/>
-      <c r="K205" s="21"/>
-    </row>
-    <row r="206" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="2" t="s">
         <v>530</v>
       </c>
@@ -9133,10 +8915,10 @@
       <c r="F206" s="4" t="s">
         <v>531</v>
       </c>
-      <c r="G206" s="33">
+      <c r="G206" s="29">
         <v>22</v>
       </c>
-      <c r="H206" s="33">
+      <c r="H206" s="29">
         <v>25</v>
       </c>
       <c r="I206" s="3" t="s">
@@ -9145,9 +8927,8 @@
       <c r="J206" s="16" t="s">
         <v>532</v>
       </c>
-      <c r="K206" s="21"/>
-    </row>
-    <row r="207" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="2" t="s">
         <v>533</v>
       </c>
@@ -9160,17 +8941,16 @@
       <c r="F207" s="4" t="s">
         <v>534</v>
       </c>
-      <c r="G207" s="33">
+      <c r="G207" s="29">
         <v>11</v>
       </c>
-      <c r="H207" s="33">
+      <c r="H207" s="29">
         <v>11</v>
       </c>
       <c r="I207" s="3"/>
       <c r="J207" s="16"/>
-      <c r="K207" s="21"/>
-    </row>
-    <row r="208" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="2" t="s">
         <v>535</v>
       </c>
@@ -9183,17 +8963,16 @@
       <c r="F208" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="G208" s="33">
+      <c r="G208" s="29">
         <v>11</v>
       </c>
-      <c r="H208" s="33">
+      <c r="H208" s="29">
         <v>12</v>
       </c>
       <c r="I208" s="3"/>
       <c r="J208" s="16"/>
-      <c r="K208" s="21"/>
-    </row>
-    <row r="209" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="2" t="s">
         <v>537</v>
       </c>
@@ -9206,17 +8985,16 @@
       <c r="F209" s="4" t="s">
         <v>536</v>
       </c>
-      <c r="G209" s="33">
+      <c r="G209" s="29">
         <v>11</v>
       </c>
-      <c r="H209" s="33">
+      <c r="H209" s="29">
         <v>12</v>
       </c>
       <c r="I209" s="3"/>
       <c r="J209" s="16"/>
-      <c r="K209" s="21"/>
-    </row>
-    <row r="210" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="2" t="s">
         <v>538</v>
       </c>
@@ -9229,17 +9007,16 @@
       <c r="F210" s="4" t="s">
         <v>539</v>
       </c>
-      <c r="G210" s="33">
+      <c r="G210" s="29">
         <v>11</v>
       </c>
-      <c r="H210" s="33">
+      <c r="H210" s="29">
         <v>11</v>
       </c>
       <c r="I210" s="3"/>
       <c r="J210" s="16"/>
-      <c r="K210" s="21"/>
-    </row>
-    <row r="211" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="2" t="s">
         <v>540</v>
       </c>
@@ -9252,17 +9029,16 @@
       <c r="F211" s="4" t="s">
         <v>541</v>
       </c>
-      <c r="G211" s="33">
+      <c r="G211" s="29">
         <v>11</v>
       </c>
-      <c r="H211" s="33">
+      <c r="H211" s="29">
         <v>11</v>
       </c>
       <c r="I211" s="3"/>
       <c r="J211" s="16"/>
-      <c r="K211" s="21"/>
-    </row>
-    <row r="212" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="2" t="s">
         <v>542</v>
       </c>
@@ -9275,17 +9051,16 @@
       <c r="F212" s="4" t="s">
         <v>543</v>
       </c>
-      <c r="G212" s="33">
+      <c r="G212" s="29">
         <v>9</v>
       </c>
-      <c r="H212" s="33">
+      <c r="H212" s="29">
         <v>9</v>
       </c>
       <c r="I212" s="3"/>
       <c r="J212" s="16"/>
-      <c r="K212" s="21"/>
-    </row>
-    <row r="213" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="2" t="s">
         <v>544</v>
       </c>
@@ -9298,17 +9073,16 @@
       <c r="F213" s="4" t="s">
         <v>545</v>
       </c>
-      <c r="G213" s="33">
+      <c r="G213" s="29">
         <v>25</v>
       </c>
-      <c r="H213" s="33">
+      <c r="H213" s="29">
         <v>25</v>
       </c>
       <c r="I213" s="3"/>
       <c r="J213" s="16"/>
-      <c r="K213" s="21"/>
-    </row>
-    <row r="214" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="2" t="s">
         <v>546</v>
       </c>
@@ -9321,17 +9095,16 @@
       <c r="F214" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="G214" s="33">
+      <c r="G214" s="29">
         <v>107</v>
       </c>
-      <c r="H214" s="33">
+      <c r="H214" s="29">
         <v>107</v>
       </c>
       <c r="I214" s="3"/>
       <c r="J214" s="16"/>
-      <c r="K214" s="21"/>
-    </row>
-    <row r="215" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="2" t="s">
         <v>548</v>
       </c>
@@ -9344,17 +9117,16 @@
       <c r="F215" s="4" t="s">
         <v>547</v>
       </c>
-      <c r="G215" s="33">
+      <c r="G215" s="29">
         <v>107</v>
       </c>
-      <c r="H215" s="33">
+      <c r="H215" s="29">
         <v>107</v>
       </c>
       <c r="I215" s="3"/>
       <c r="J215" s="16"/>
-      <c r="K215" s="21"/>
-    </row>
-    <row r="216" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="2" t="s">
         <v>549</v>
       </c>
@@ -9367,17 +9139,16 @@
       <c r="F216" s="4" t="s">
         <v>550</v>
       </c>
-      <c r="G216" s="33">
+      <c r="G216" s="29">
         <v>107</v>
       </c>
-      <c r="H216" s="33">
+      <c r="H216" s="29">
         <v>409</v>
       </c>
       <c r="I216" s="3"/>
       <c r="J216" s="16"/>
-      <c r="K216" s="21"/>
-    </row>
-    <row r="217" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="2" t="s">
         <v>551</v>
       </c>
@@ -9390,17 +9161,16 @@
       <c r="F217" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="G217" s="33">
+      <c r="G217" s="29">
         <v>107</v>
       </c>
-      <c r="H217" s="33">
+      <c r="H217" s="29">
         <v>107</v>
       </c>
       <c r="I217" s="3"/>
       <c r="J217" s="16"/>
-      <c r="K217" s="21"/>
-    </row>
-    <row r="218" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="2" t="s">
         <v>553</v>
       </c>
@@ -9413,17 +9183,16 @@
       <c r="F218" s="4" t="s">
         <v>554</v>
       </c>
-      <c r="G218" s="33">
+      <c r="G218" s="29">
         <v>11</v>
       </c>
-      <c r="H218" s="33">
+      <c r="H218" s="29">
         <v>11</v>
       </c>
       <c r="I218" s="3"/>
       <c r="J218" s="16"/>
-      <c r="K218" s="21"/>
-    </row>
-    <row r="219" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="2" t="s">
         <v>555</v>
       </c>
@@ -9436,19 +9205,18 @@
       <c r="F219" s="4" t="s">
         <v>556</v>
       </c>
-      <c r="G219" s="33">
+      <c r="G219" s="29">
         <v>15</v>
       </c>
-      <c r="H219" s="33">
+      <c r="H219" s="29">
         <v>25</v>
       </c>
-      <c r="I219" s="42" t="s">
+      <c r="I219" s="38" t="s">
         <v>557</v>
       </c>
-      <c r="J219" s="43"/>
-      <c r="K219" s="21"/>
-    </row>
-    <row r="220" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="J219" s="44"/>
+    </row>
+    <row r="220" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
         <v>558</v>
       </c>
@@ -9461,17 +9229,16 @@
       <c r="F220" s="4" t="s">
         <v>559</v>
       </c>
-      <c r="G220" s="33">
+      <c r="G220" s="29">
         <v>15</v>
       </c>
-      <c r="H220" s="33">
+      <c r="H220" s="29">
         <v>15</v>
       </c>
-      <c r="I220" s="42"/>
-      <c r="J220" s="43"/>
-      <c r="K220" s="21"/>
-    </row>
-    <row r="221" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I220" s="38"/>
+      <c r="J220" s="44"/>
+    </row>
+    <row r="221" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
         <v>560</v>
       </c>
@@ -9484,17 +9251,16 @@
       <c r="F221" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="G221" s="33">
+      <c r="G221" s="29">
         <v>107</v>
       </c>
-      <c r="H221" s="33">
+      <c r="H221" s="29">
         <v>409</v>
       </c>
       <c r="I221" s="3"/>
       <c r="J221" s="16"/>
-      <c r="K221" s="21"/>
-    </row>
-    <row r="222" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="2" t="s">
         <v>561</v>
       </c>
@@ -9507,17 +9273,16 @@
       <c r="F222" s="4" t="s">
         <v>552</v>
       </c>
-      <c r="G222" s="33">
+      <c r="G222" s="29">
         <v>107</v>
       </c>
-      <c r="H222" s="33">
+      <c r="H222" s="29">
         <v>409</v>
       </c>
       <c r="I222" s="3"/>
       <c r="J222" s="16"/>
-      <c r="K222" s="21"/>
-    </row>
-    <row r="223" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>562</v>
       </c>
@@ -9530,22 +9295,20 @@
       <c r="F223" s="4" t="s">
         <v>563</v>
       </c>
-      <c r="G223" s="33">
+      <c r="G223" s="29">
         <v>22</v>
       </c>
-      <c r="H223" s="33">
+      <c r="H223" s="29">
         <v>25</v>
       </c>
       <c r="I223" s="3"/>
       <c r="J223" s="16"/>
-      <c r="K223" s="21"/>
-    </row>
-    <row r="224" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="11"/>
       <c r="B224" s="11"/>
-      <c r="K224" s="21"/>
-    </row>
-    <row r="225" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="12">
         <v>1</v>
       </c>
@@ -9562,10 +9325,10 @@
       <c r="F225" s="13">
         <v>5</v>
       </c>
-      <c r="G225" s="36">
+      <c r="G225" s="32">
         <v>6</v>
       </c>
-      <c r="H225" s="36">
+      <c r="H225" s="32">
         <v>7</v>
       </c>
       <c r="I225" s="13">
@@ -9574,9 +9337,8 @@
       <c r="J225" s="20">
         <v>9</v>
       </c>
-      <c r="K225" s="21"/>
-    </row>
-    <row r="226" spans="1:11" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:10" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>564</v>
       </c>
@@ -9589,17 +9351,16 @@
       <c r="F226" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="G226" s="33">
+      <c r="G226" s="29">
         <v>215</v>
       </c>
-      <c r="H226" s="33">
+      <c r="H226" s="29">
         <v>215</v>
       </c>
       <c r="I226" s="3"/>
       <c r="J226" s="16"/>
-      <c r="K226" s="21"/>
-    </row>
-    <row r="227" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>566</v>
       </c>
@@ -9612,17 +9373,16 @@
       <c r="F227" s="4" t="s">
         <v>565</v>
       </c>
-      <c r="G227" s="33">
+      <c r="G227" s="29">
         <v>215</v>
       </c>
-      <c r="H227" s="33">
+      <c r="H227" s="29">
         <v>215</v>
       </c>
       <c r="I227" s="3"/>
       <c r="J227" s="16"/>
-      <c r="K227" s="21"/>
-    </row>
-    <row r="228" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>567</v>
       </c>
@@ -9635,17 +9395,16 @@
       <c r="F228" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="G228" s="33">
+      <c r="G228" s="29">
         <v>215</v>
       </c>
-      <c r="H228" s="33">
+      <c r="H228" s="29">
         <v>215</v>
       </c>
       <c r="I228" s="3"/>
       <c r="J228" s="16"/>
-      <c r="K228" s="21"/>
-    </row>
-    <row r="229" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>568</v>
       </c>
@@ -9658,13 +9417,12 @@
       <c r="F229" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="G229" s="33"/>
-      <c r="H229" s="33"/>
+      <c r="G229" s="29"/>
+      <c r="H229" s="29"/>
       <c r="I229" s="3"/>
       <c r="J229" s="16"/>
-      <c r="K229" s="21"/>
-    </row>
-    <row r="230" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>570</v>
       </c>
@@ -9677,13 +9435,12 @@
       <c r="F230" s="4" t="s">
         <v>569</v>
       </c>
-      <c r="G230" s="33"/>
-      <c r="H230" s="33"/>
+      <c r="G230" s="29"/>
+      <c r="H230" s="29"/>
       <c r="I230" s="3"/>
       <c r="J230" s="16"/>
-      <c r="K230" s="21"/>
-    </row>
-    <row r="231" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>571</v>
       </c>
@@ -9696,13 +9453,12 @@
       <c r="F231" s="4" t="s">
         <v>292</v>
       </c>
-      <c r="G231" s="33"/>
-      <c r="H231" s="33"/>
+      <c r="G231" s="29"/>
+      <c r="H231" s="29"/>
       <c r="I231" s="3"/>
       <c r="J231" s="16"/>
-      <c r="K231" s="21"/>
-    </row>
-    <row r="232" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="2" t="s">
         <v>572</v>
       </c>
@@ -9715,17 +9471,16 @@
       <c r="F232" s="4" t="s">
         <v>573</v>
       </c>
-      <c r="G232" s="33">
+      <c r="G232" s="29">
         <v>402</v>
       </c>
-      <c r="H232" s="33">
+      <c r="H232" s="29">
         <v>402</v>
       </c>
       <c r="I232" s="3"/>
       <c r="J232" s="16"/>
-      <c r="K232" s="21"/>
-    </row>
-    <row r="233" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>574</v>
       </c>
@@ -9740,17 +9495,16 @@
       <c r="F233" s="4" t="s">
         <v>576</v>
       </c>
-      <c r="G233" s="33">
+      <c r="G233" s="29">
         <v>402</v>
       </c>
-      <c r="H233" s="33">
+      <c r="H233" s="29">
         <v>402</v>
       </c>
       <c r="I233" s="3"/>
       <c r="J233" s="16"/>
-      <c r="K233" s="21"/>
-    </row>
-    <row r="234" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="2" t="s">
         <v>577</v>
       </c>
@@ -9765,17 +9519,16 @@
       <c r="F234" s="4" t="s">
         <v>579</v>
       </c>
-      <c r="G234" s="33">
+      <c r="G234" s="29">
         <v>402</v>
       </c>
-      <c r="H234" s="33">
+      <c r="H234" s="29">
         <v>402</v>
       </c>
       <c r="I234" s="3"/>
       <c r="J234" s="16"/>
-      <c r="K234" s="21"/>
-    </row>
-    <row r="235" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="2" t="s">
         <v>580</v>
       </c>
@@ -9790,17 +9543,16 @@
       <c r="F235" s="4" t="s">
         <v>581</v>
       </c>
-      <c r="G235" s="33">
+      <c r="G235" s="29">
         <v>402</v>
       </c>
-      <c r="H235" s="33">
+      <c r="H235" s="29">
         <v>402</v>
       </c>
       <c r="I235" s="3"/>
       <c r="J235" s="16"/>
-      <c r="K235" s="21"/>
-    </row>
-    <row r="236" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>582</v>
       </c>
@@ -9815,17 +9567,16 @@
       <c r="F236" s="4" t="s">
         <v>583</v>
       </c>
-      <c r="G236" s="33">
+      <c r="G236" s="29">
         <v>402</v>
       </c>
-      <c r="H236" s="33">
+      <c r="H236" s="29">
         <v>402</v>
       </c>
       <c r="I236" s="3"/>
       <c r="J236" s="16"/>
-      <c r="K236" s="21"/>
-    </row>
-    <row r="237" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="2" t="s">
         <v>584</v>
       </c>
@@ -9842,10 +9593,10 @@
       <c r="F237" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="G237" s="33">
+      <c r="G237" s="29">
         <v>402</v>
       </c>
-      <c r="H237" s="33">
+      <c r="H237" s="29">
         <v>608</v>
       </c>
       <c r="I237" s="3" t="s">
@@ -9854,9 +9605,8 @@
       <c r="J237" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="K237" s="21"/>
-    </row>
-    <row r="238" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>589</v>
       </c>
@@ -9873,10 +9623,10 @@
       <c r="F238" s="4" t="s">
         <v>586</v>
       </c>
-      <c r="G238" s="33">
+      <c r="G238" s="29">
         <v>402</v>
       </c>
-      <c r="H238" s="33">
+      <c r="H238" s="29">
         <v>608</v>
       </c>
       <c r="I238" s="3" t="s">
@@ -9885,9 +9635,8 @@
       <c r="J238" s="16" t="s">
         <v>588</v>
       </c>
-      <c r="K238" s="21"/>
-    </row>
-    <row r="239" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="2" t="s">
         <v>591</v>
       </c>
@@ -9900,17 +9649,16 @@
       <c r="F239" s="4" t="s">
         <v>592</v>
       </c>
-      <c r="G239" s="33">
+      <c r="G239" s="29">
         <v>402</v>
       </c>
-      <c r="H239" s="33">
+      <c r="H239" s="29">
         <v>402</v>
       </c>
       <c r="I239" s="3"/>
       <c r="J239" s="16"/>
-      <c r="K239" s="21"/>
-    </row>
-    <row r="240" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="2" t="s">
         <v>593</v>
       </c>
@@ -9923,17 +9671,16 @@
       <c r="F240" s="4" t="s">
         <v>594</v>
       </c>
-      <c r="G240" s="33">
+      <c r="G240" s="29">
         <v>402</v>
       </c>
-      <c r="H240" s="33">
+      <c r="H240" s="29">
         <v>402</v>
       </c>
       <c r="I240" s="3"/>
       <c r="J240" s="16"/>
-      <c r="K240" s="21"/>
-    </row>
-    <row r="241" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>595</v>
       </c>
@@ -9946,17 +9693,16 @@
       <c r="F241" s="4" t="s">
         <v>596</v>
       </c>
-      <c r="G241" s="33">
+      <c r="G241" s="29">
         <v>402</v>
       </c>
-      <c r="H241" s="33">
+      <c r="H241" s="29">
         <v>402</v>
       </c>
       <c r="I241" s="3"/>
       <c r="J241" s="16"/>
-      <c r="K241" s="21"/>
-    </row>
-    <row r="242" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="2" t="s">
         <v>597</v>
       </c>
@@ -9969,17 +9715,16 @@
       <c r="F242" s="4" t="s">
         <v>598</v>
       </c>
-      <c r="G242" s="33">
+      <c r="G242" s="29">
         <v>402</v>
       </c>
-      <c r="H242" s="33">
+      <c r="H242" s="29">
         <v>402</v>
       </c>
       <c r="I242" s="3"/>
       <c r="J242" s="16"/>
-      <c r="K242" s="21"/>
-    </row>
-    <row r="243" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="2" t="s">
         <v>599</v>
       </c>
@@ -9992,17 +9737,16 @@
       <c r="F243" s="4" t="s">
         <v>600</v>
       </c>
-      <c r="G243" s="33">
+      <c r="G243" s="29">
         <v>25</v>
       </c>
-      <c r="H243" s="33">
+      <c r="H243" s="29">
         <v>25</v>
       </c>
       <c r="I243" s="3"/>
       <c r="J243" s="16"/>
-      <c r="K243" s="21"/>
-    </row>
-    <row r="244" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="2" t="s">
         <v>601</v>
       </c>
@@ -10015,17 +9759,16 @@
       <c r="F244" s="4" t="s">
         <v>602</v>
       </c>
-      <c r="G244" s="33">
+      <c r="G244" s="29">
         <v>25</v>
       </c>
-      <c r="H244" s="33">
+      <c r="H244" s="29">
         <v>25</v>
       </c>
       <c r="I244" s="3"/>
       <c r="J244" s="16"/>
-      <c r="K244" s="21"/>
-    </row>
-    <row r="245" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="2" t="s">
         <v>603</v>
       </c>
@@ -10038,17 +9781,16 @@
       <c r="F245" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="G245" s="33">
+      <c r="G245" s="29">
         <v>402</v>
       </c>
-      <c r="H245" s="33">
+      <c r="H245" s="29">
         <v>402</v>
       </c>
       <c r="I245" s="3"/>
       <c r="J245" s="16"/>
-      <c r="K245" s="21"/>
-    </row>
-    <row r="246" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="2" t="s">
         <v>605</v>
       </c>
@@ -10065,10 +9807,10 @@
       <c r="F246" s="4" t="s">
         <v>604</v>
       </c>
-      <c r="G246" s="33">
+      <c r="G246" s="29">
         <v>402</v>
       </c>
-      <c r="H246" s="33">
+      <c r="H246" s="29">
         <v>609</v>
       </c>
       <c r="I246" s="3" t="s">
@@ -10077,9 +9819,8 @@
       <c r="J246" s="16" t="s">
         <v>610</v>
       </c>
-      <c r="K246" s="21"/>
-    </row>
-    <row r="247" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="2" t="s">
         <v>611</v>
       </c>
@@ -10092,17 +9833,16 @@
       <c r="F247" s="4" t="s">
         <v>612</v>
       </c>
-      <c r="G247" s="33">
+      <c r="G247" s="29">
         <v>402</v>
       </c>
-      <c r="H247" s="33">
+      <c r="H247" s="29">
         <v>402</v>
       </c>
       <c r="I247" s="3"/>
       <c r="J247" s="16"/>
-      <c r="K247" s="21"/>
-    </row>
-    <row r="248" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="2" t="s">
         <v>613</v>
       </c>
@@ -10119,10 +9859,10 @@
       <c r="F248" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="G248" s="33">
+      <c r="G248" s="29">
         <v>402</v>
       </c>
-      <c r="H248" s="33">
+      <c r="H248" s="29">
         <v>608</v>
       </c>
       <c r="I248" s="3" t="s">
@@ -10131,9 +9871,8 @@
       <c r="J248" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="K248" s="21"/>
-    </row>
-    <row r="249" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="2" t="s">
         <v>617</v>
       </c>
@@ -10150,10 +9889,10 @@
       <c r="F249" s="4" t="s">
         <v>616</v>
       </c>
-      <c r="G249" s="33">
+      <c r="G249" s="29">
         <v>402</v>
       </c>
-      <c r="H249" s="33">
+      <c r="H249" s="29">
         <v>609</v>
       </c>
       <c r="I249" s="3" t="s">
@@ -10162,9 +9901,8 @@
       <c r="J249" s="16" t="s">
         <v>619</v>
       </c>
-      <c r="K249" s="21"/>
-    </row>
-    <row r="250" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>620</v>
       </c>
@@ -10181,10 +9919,10 @@
       <c r="F250" s="4" t="s">
         <v>623</v>
       </c>
-      <c r="G250" s="33">
+      <c r="G250" s="29">
         <v>402</v>
       </c>
-      <c r="H250" s="33">
+      <c r="H250" s="29">
         <v>609</v>
       </c>
       <c r="I250" s="3" t="s">
@@ -10193,9 +9931,8 @@
       <c r="J250" s="16" t="s">
         <v>619</v>
       </c>
-      <c r="K250" s="21"/>
-    </row>
-    <row r="251" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>624</v>
       </c>
@@ -10212,10 +9949,10 @@
       <c r="F251" s="4" t="s">
         <v>627</v>
       </c>
-      <c r="G251" s="33">
+      <c r="G251" s="29">
         <v>402</v>
       </c>
-      <c r="H251" s="33">
+      <c r="H251" s="29">
         <v>609</v>
       </c>
       <c r="I251" s="3" t="s">
@@ -10224,9 +9961,8 @@
       <c r="J251" s="16" t="s">
         <v>619</v>
       </c>
-      <c r="K251" s="21"/>
-    </row>
-    <row r="252" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="2" t="s">
         <v>628</v>
       </c>
@@ -10239,17 +9975,16 @@
       <c r="F252" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="G252" s="33">
+      <c r="G252" s="29">
         <v>402</v>
       </c>
-      <c r="H252" s="33">
+      <c r="H252" s="29">
         <v>402</v>
       </c>
       <c r="I252" s="3"/>
       <c r="J252" s="16"/>
-      <c r="K252" s="21"/>
-    </row>
-    <row r="253" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="2" t="s">
         <v>630</v>
       </c>
@@ -10262,17 +9997,16 @@
       <c r="F253" s="4" t="s">
         <v>631</v>
       </c>
-      <c r="G253" s="33">
+      <c r="G253" s="29">
         <v>402</v>
       </c>
-      <c r="H253" s="33">
+      <c r="H253" s="29">
         <v>402</v>
       </c>
       <c r="I253" s="3"/>
       <c r="J253" s="16"/>
-      <c r="K253" s="21"/>
-    </row>
-    <row r="254" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="2" t="s">
         <v>632</v>
       </c>
@@ -10285,17 +10019,16 @@
       <c r="F254" s="4" t="s">
         <v>629</v>
       </c>
-      <c r="G254" s="33">
+      <c r="G254" s="29">
         <v>401</v>
       </c>
-      <c r="H254" s="33">
+      <c r="H254" s="29">
         <v>401</v>
       </c>
       <c r="I254" s="3"/>
       <c r="J254" s="16"/>
-      <c r="K254" s="21"/>
-    </row>
-    <row r="255" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>634</v>
       </c>
@@ -10310,10 +10043,10 @@
       <c r="F255" s="4" t="s">
         <v>636</v>
       </c>
-      <c r="G255" s="33">
+      <c r="G255" s="29">
         <v>402</v>
       </c>
-      <c r="H255" s="33">
+      <c r="H255" s="29">
         <v>608</v>
       </c>
       <c r="I255" s="3" t="s">
@@ -10322,9 +10055,8 @@
       <c r="J255" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="K255" s="21"/>
-    </row>
-    <row r="256" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>638</v>
       </c>
@@ -10339,10 +10071,10 @@
       <c r="F256" s="4" t="s">
         <v>640</v>
       </c>
-      <c r="G256" s="33">
+      <c r="G256" s="29">
         <v>402</v>
       </c>
-      <c r="H256" s="33">
+      <c r="H256" s="29">
         <v>608</v>
       </c>
       <c r="I256" s="3" t="s">
@@ -10351,9 +10083,8 @@
       <c r="J256" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="K256" s="21"/>
-    </row>
-    <row r="257" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>641</v>
       </c>
@@ -10366,17 +10097,16 @@
       <c r="F257" s="4" t="s">
         <v>642</v>
       </c>
-      <c r="G257" s="33">
+      <c r="G257" s="29">
         <v>401</v>
       </c>
-      <c r="H257" s="33">
+      <c r="H257" s="29">
         <v>401</v>
       </c>
       <c r="I257" s="3"/>
       <c r="J257" s="16"/>
-      <c r="K257" s="21"/>
-    </row>
-    <row r="258" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>643</v>
       </c>
@@ -10389,17 +10119,16 @@
       <c r="F258" s="4" t="s">
         <v>644</v>
       </c>
-      <c r="G258" s="33">
+      <c r="G258" s="29">
         <v>402</v>
       </c>
-      <c r="H258" s="33">
+      <c r="H258" s="29">
         <v>402</v>
       </c>
       <c r="I258" s="3"/>
       <c r="J258" s="16"/>
-      <c r="K258" s="21"/>
-    </row>
-    <row r="259" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>645</v>
       </c>
@@ -10412,17 +10141,16 @@
       <c r="F259" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G259" s="33">
+      <c r="G259" s="29">
         <v>402</v>
       </c>
-      <c r="H259" s="33">
+      <c r="H259" s="29">
         <v>402</v>
       </c>
       <c r="I259" s="3"/>
       <c r="J259" s="16"/>
-      <c r="K259" s="21"/>
-    </row>
-    <row r="260" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>647</v>
       </c>
@@ -10435,17 +10163,16 @@
       <c r="F260" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G260" s="33">
+      <c r="G260" s="29">
         <v>402</v>
       </c>
-      <c r="H260" s="33">
+      <c r="H260" s="29">
         <v>402</v>
       </c>
       <c r="I260" s="3"/>
       <c r="J260" s="16"/>
-      <c r="K260" s="21"/>
-    </row>
-    <row r="261" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>648</v>
       </c>
@@ -10458,17 +10185,16 @@
       <c r="F261" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="G261" s="33">
+      <c r="G261" s="29">
         <v>402</v>
       </c>
-      <c r="H261" s="33">
+      <c r="H261" s="29">
         <v>401</v>
       </c>
       <c r="I261" s="3"/>
       <c r="J261" s="16"/>
-      <c r="K261" s="21"/>
-    </row>
-    <row r="262" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>650</v>
       </c>
@@ -10481,17 +10207,16 @@
       <c r="F262" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="G262" s="33">
+      <c r="G262" s="29">
         <v>402</v>
       </c>
-      <c r="H262" s="33">
+      <c r="H262" s="29">
         <v>402</v>
       </c>
       <c r="I262" s="3"/>
       <c r="J262" s="16"/>
-      <c r="K262" s="21"/>
-    </row>
-    <row r="263" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>651</v>
       </c>
@@ -10504,17 +10229,16 @@
       <c r="F263" s="4" t="s">
         <v>646</v>
       </c>
-      <c r="G263" s="33">
+      <c r="G263" s="29">
         <v>402</v>
       </c>
-      <c r="H263" s="33">
+      <c r="H263" s="29">
         <v>402</v>
       </c>
       <c r="I263" s="3"/>
       <c r="J263" s="16"/>
-      <c r="K263" s="21"/>
-    </row>
-    <row r="264" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="2" t="s">
         <v>652</v>
       </c>
@@ -10527,17 +10251,16 @@
       <c r="F264" s="4" t="s">
         <v>649</v>
       </c>
-      <c r="G264" s="33">
+      <c r="G264" s="29">
         <v>402</v>
       </c>
-      <c r="H264" s="33">
+      <c r="H264" s="29">
         <v>402</v>
       </c>
       <c r="I264" s="3"/>
       <c r="J264" s="16"/>
-      <c r="K264" s="21"/>
-    </row>
-    <row r="265" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="2" t="s">
         <v>653</v>
       </c>
@@ -10552,10 +10275,10 @@
       <c r="F265" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G265" s="33">
+      <c r="G265" s="29">
         <v>402</v>
       </c>
-      <c r="H265" s="33">
+      <c r="H265" s="29">
         <v>402</v>
       </c>
       <c r="I265" s="3" t="s">
@@ -10564,9 +10287,8 @@
       <c r="J265" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="K265" s="21"/>
-    </row>
-    <row r="266" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="2" t="s">
         <v>655</v>
       </c>
@@ -10581,10 +10303,10 @@
       <c r="F266" s="4" t="s">
         <v>654</v>
       </c>
-      <c r="G266" s="33">
+      <c r="G266" s="29">
         <v>402</v>
       </c>
-      <c r="H266" s="33">
+      <c r="H266" s="29">
         <v>402</v>
       </c>
       <c r="I266" s="3" t="s">
@@ -10593,9 +10315,8 @@
       <c r="J266" s="16" t="s">
         <v>656</v>
       </c>
-      <c r="K266" s="21"/>
-    </row>
-    <row r="267" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="2" t="s">
         <v>657</v>
       </c>
@@ -10612,10 +10333,10 @@
       <c r="F267" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="G267" s="33" t="s">
+      <c r="G267" s="29" t="s">
         <v>661</v>
       </c>
-      <c r="H267" s="33" t="s">
+      <c r="H267" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I267" s="3" t="s">
@@ -10624,9 +10345,8 @@
       <c r="J267" s="16" t="s">
         <v>662</v>
       </c>
-      <c r="K267" s="21"/>
-    </row>
-    <row r="268" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="2" t="s">
         <v>663</v>
       </c>
@@ -10643,10 +10363,10 @@
       <c r="F268" s="4" t="s">
         <v>660</v>
       </c>
-      <c r="G268" s="33" t="s">
+      <c r="G268" s="29" t="s">
         <v>661</v>
       </c>
-      <c r="H268" s="33" t="s">
+      <c r="H268" s="29" t="s">
         <v>23</v>
       </c>
       <c r="I268" s="3" t="s">
@@ -10655,9 +10375,8 @@
       <c r="J268" s="16" t="s">
         <v>662</v>
       </c>
-      <c r="K268" s="21"/>
-    </row>
-    <row r="269" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="2" t="s">
         <v>665</v>
       </c>
@@ -10670,17 +10389,16 @@
       <c r="F269" s="4" t="s">
         <v>666</v>
       </c>
-      <c r="G269" s="33">
+      <c r="G269" s="29">
         <v>402</v>
       </c>
-      <c r="H269" s="33">
+      <c r="H269" s="29">
         <v>402</v>
       </c>
       <c r="I269" s="3"/>
       <c r="J269" s="16"/>
-      <c r="K269" s="21"/>
-    </row>
-    <row r="270" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="2" t="s">
         <v>667</v>
       </c>
@@ -10693,17 +10411,16 @@
       <c r="F270" s="4" t="s">
         <v>668</v>
       </c>
-      <c r="G270" s="33">
+      <c r="G270" s="29">
         <v>402</v>
       </c>
-      <c r="H270" s="33">
+      <c r="H270" s="29">
         <v>402</v>
       </c>
       <c r="I270" s="3"/>
       <c r="J270" s="16"/>
-      <c r="K270" s="21"/>
-    </row>
-    <row r="271" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="2" t="s">
         <v>669</v>
       </c>
@@ -10716,17 +10433,16 @@
       <c r="F271" s="4" t="s">
         <v>670</v>
       </c>
-      <c r="G271" s="33">
+      <c r="G271" s="29">
         <v>8</v>
       </c>
-      <c r="H271" s="33">
+      <c r="H271" s="29">
         <v>8</v>
       </c>
       <c r="I271" s="3"/>
       <c r="J271" s="16"/>
-      <c r="K271" s="21"/>
-    </row>
-    <row r="272" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="2" t="s">
         <v>671</v>
       </c>
@@ -10739,17 +10455,16 @@
       <c r="F272" s="4" t="s">
         <v>672</v>
       </c>
-      <c r="G272" s="33">
+      <c r="G272" s="29">
         <v>8</v>
       </c>
-      <c r="H272" s="33">
+      <c r="H272" s="29">
         <v>8</v>
       </c>
       <c r="I272" s="3"/>
       <c r="J272" s="16"/>
-      <c r="K272" s="21"/>
-    </row>
-    <row r="273" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="2" t="s">
         <v>673</v>
       </c>
@@ -10762,17 +10477,16 @@
       <c r="F273" s="4" t="s">
         <v>674</v>
       </c>
-      <c r="G273" s="33">
+      <c r="G273" s="29">
         <v>402</v>
       </c>
-      <c r="H273" s="33">
+      <c r="H273" s="29">
         <v>402</v>
       </c>
       <c r="I273" s="3"/>
       <c r="J273" s="16"/>
-      <c r="K273" s="22"/>
-    </row>
-    <row r="274" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="2" t="s">
         <v>675</v>
       </c>
@@ -10785,16 +10499,16 @@
       <c r="F274" s="4" t="s">
         <v>676</v>
       </c>
-      <c r="G274" s="33">
+      <c r="G274" s="29">
         <v>8</v>
       </c>
-      <c r="H274" s="33">
+      <c r="H274" s="29">
         <v>8</v>
       </c>
       <c r="I274" s="3"/>
       <c r="J274" s="3"/>
     </row>
-    <row r="275" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="2" t="s">
         <v>677</v>
       </c>
@@ -10807,16 +10521,16 @@
       <c r="F275" s="4" t="s">
         <v>678</v>
       </c>
-      <c r="G275" s="33">
+      <c r="G275" s="29">
         <v>402</v>
       </c>
-      <c r="H275" s="33">
+      <c r="H275" s="29">
         <v>402</v>
       </c>
       <c r="I275" s="3"/>
       <c r="J275" s="3"/>
     </row>
-    <row r="276" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="2" t="s">
         <v>679</v>
       </c>
@@ -10829,16 +10543,16 @@
       <c r="F276" s="4" t="s">
         <v>680</v>
       </c>
-      <c r="G276" s="33">
+      <c r="G276" s="29">
         <v>402</v>
       </c>
-      <c r="H276" s="33">
+      <c r="H276" s="29">
         <v>402</v>
       </c>
       <c r="I276" s="3"/>
       <c r="J276" s="3"/>
     </row>
-    <row r="277" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="2" t="s">
         <v>681</v>
       </c>
@@ -10851,16 +10565,16 @@
       <c r="F277" s="4" t="s">
         <v>682</v>
       </c>
-      <c r="G277" s="33">
+      <c r="G277" s="29">
         <v>402</v>
       </c>
-      <c r="H277" s="33">
+      <c r="H277" s="29">
         <v>402</v>
       </c>
       <c r="I277" s="3"/>
       <c r="J277" s="3"/>
     </row>
-    <row r="278" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="2" t="s">
         <v>683</v>
       </c>
@@ -10873,10 +10587,10 @@
       <c r="F278" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="G278" s="33">
+      <c r="G278" s="29">
         <v>402</v>
       </c>
-      <c r="H278" s="33">
+      <c r="H278" s="29">
         <v>609</v>
       </c>
       <c r="I278" s="3" t="s">
@@ -10886,7 +10600,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="279" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="2" t="s">
         <v>685</v>
       </c>
@@ -10903,10 +10617,10 @@
       <c r="F279" s="4" t="s">
         <v>684</v>
       </c>
-      <c r="G279" s="33">
+      <c r="G279" s="29">
         <v>402</v>
       </c>
-      <c r="H279" s="33">
+      <c r="H279" s="29">
         <v>608</v>
       </c>
       <c r="I279" s="3" t="s">
@@ -10916,7 +10630,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="280" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="2" t="s">
         <v>686</v>
       </c>
@@ -10927,16 +10641,16 @@
       <c r="F280" s="4" t="s">
         <v>687</v>
       </c>
-      <c r="G280" s="33">
+      <c r="G280" s="29">
         <v>12</v>
       </c>
-      <c r="H280" s="33">
+      <c r="H280" s="29">
         <v>12</v>
       </c>
       <c r="I280" s="3"/>
       <c r="J280" s="3"/>
     </row>
-    <row r="281" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="2" t="s">
         <v>688</v>
       </c>
@@ -10947,16 +10661,16 @@
       <c r="F281" s="4" t="s">
         <v>689</v>
       </c>
-      <c r="G281" s="33">
+      <c r="G281" s="29">
         <v>12</v>
       </c>
-      <c r="H281" s="33">
+      <c r="H281" s="29">
         <v>12</v>
       </c>
       <c r="I281" s="3"/>
       <c r="J281" s="3"/>
     </row>
-    <row r="282" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="2" t="s">
         <v>690</v>
       </c>
@@ -10967,16 +10681,16 @@
       <c r="F282" s="4" t="s">
         <v>691</v>
       </c>
-      <c r="G282" s="33">
+      <c r="G282" s="29">
         <v>12</v>
       </c>
-      <c r="H282" s="33">
+      <c r="H282" s="29">
         <v>12</v>
       </c>
       <c r="I282" s="3"/>
       <c r="J282" s="3"/>
     </row>
-    <row r="283" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="2" t="s">
         <v>692</v>
       </c>
@@ -10987,12 +10701,12 @@
       <c r="F283" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="G283" s="33"/>
-      <c r="H283" s="33"/>
+      <c r="G283" s="29"/>
+      <c r="H283" s="29"/>
       <c r="I283" s="3"/>
       <c r="J283" s="3"/>
     </row>
-    <row r="284" spans="1:11" ht="57" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="2" t="s">
         <v>694</v>
       </c>
@@ -11003,12 +10717,12 @@
       <c r="F284" s="4" t="s">
         <v>693</v>
       </c>
-      <c r="G284" s="33"/>
-      <c r="H284" s="33"/>
+      <c r="G284" s="29"/>
+      <c r="H284" s="29"/>
       <c r="I284" s="3"/>
       <c r="J284" s="3"/>
     </row>
-    <row r="285" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="2" t="s">
         <v>695</v>
       </c>
@@ -11019,16 +10733,16 @@
       <c r="F285" s="4" t="s">
         <v>696</v>
       </c>
-      <c r="G285" s="33">
+      <c r="G285" s="29">
         <v>12</v>
       </c>
-      <c r="H285" s="33">
+      <c r="H285" s="29">
         <v>12</v>
       </c>
       <c r="I285" s="3"/>
       <c r="J285" s="3"/>
     </row>
-    <row r="286" spans="1:11" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="2" t="s">
         <v>697</v>
       </c>
@@ -11039,38 +10753,38 @@
       <c r="F286" s="4" t="s">
         <v>698</v>
       </c>
-      <c r="G286" s="33"/>
-      <c r="H286" s="33"/>
+      <c r="G286" s="29"/>
+      <c r="H286" s="29"/>
       <c r="I286" s="3"/>
       <c r="J286" s="3"/>
     </row>
-    <row r="287" spans="1:11" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A287" s="37" t="s">
+    <row r="287" spans="1:10" ht="46.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A287" s="33" t="s">
+        <v>711</v>
+      </c>
+      <c r="C287" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D287" s="34"/>
+      <c r="E287" s="34"/>
+      <c r="F287" s="35" t="s">
         <v>712</v>
       </c>
-      <c r="C287" s="37" t="s">
-        <v>0</v>
-      </c>
-      <c r="D287" s="38"/>
-      <c r="E287" s="38"/>
-      <c r="F287" s="39" t="s">
+      <c r="G287" s="34">
+        <v>401</v>
+      </c>
+      <c r="H287" s="34">
+        <v>401</v>
+      </c>
+      <c r="I287" s="34"/>
+      <c r="J287" s="34"/>
+    </row>
+    <row r="288" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A288" s="2" t="s">
         <v>713</v>
       </c>
-      <c r="G287" s="38">
-        <v>401</v>
-      </c>
-      <c r="H287" s="38">
-        <v>401</v>
-      </c>
-      <c r="I287" s="38"/>
-      <c r="J287" s="38"/>
-    </row>
-    <row r="288" spans="1:11" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A288" s="2" t="s">
-        <v>714</v>
-      </c>
       <c r="C288" s="2" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="D288" s="3" t="s">
         <v>3</v>
@@ -11079,7 +10793,7 @@
         <v>123</v>
       </c>
       <c r="F288" s="4" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G288" s="3">
         <v>28</v>
@@ -11091,12 +10805,12 @@
         <v>223</v>
       </c>
       <c r="J288" s="3" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="289" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>0</v>
@@ -11104,7 +10818,7 @@
       <c r="D289" s="3"/>
       <c r="E289" s="3"/>
       <c r="F289" s="4" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G289" s="3">
         <v>409</v>
@@ -11117,7 +10831,7 @@
     </row>
     <row r="290" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>0</v>
@@ -11125,7 +10839,7 @@
       <c r="D290" s="3"/>
       <c r="E290" s="3"/>
       <c r="F290" s="4" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G290" s="3">
         <v>409</v>
@@ -11138,7 +10852,7 @@
     </row>
     <row r="291" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>0</v>
@@ -11146,7 +10860,7 @@
       <c r="D291" s="3"/>
       <c r="E291" s="3"/>
       <c r="F291" s="4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G291" s="3">
         <v>409</v>
@@ -11159,7 +10873,7 @@
     </row>
     <row r="292" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>0</v>
@@ -11167,7 +10881,7 @@
       <c r="D292" s="3"/>
       <c r="E292" s="3"/>
       <c r="F292" s="4" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G292" s="3">
         <v>409</v>
@@ -11180,7 +10894,7 @@
     </row>
     <row r="293" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>0</v>
@@ -11188,7 +10902,7 @@
       <c r="D293" s="3"/>
       <c r="E293" s="3"/>
       <c r="F293" s="4" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G293" s="3">
         <v>25</v>
@@ -11201,7 +10915,7 @@
     </row>
     <row r="294" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>0</v>
@@ -11209,7 +10923,7 @@
       <c r="D294" s="3"/>
       <c r="E294" s="3"/>
       <c r="F294" s="4" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G294" s="3">
         <v>102</v>
@@ -11222,10 +10936,10 @@
     </row>
     <row r="295" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D295" s="3" t="s">
         <v>480</v>
@@ -11234,7 +10948,7 @@
         <v>155</v>
       </c>
       <c r="F295" s="4" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G295" s="3">
         <v>704</v>
@@ -11246,12 +10960,12 @@
         <v>609</v>
       </c>
       <c r="J295" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="296" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>0</v>
@@ -11259,7 +10973,7 @@
       <c r="D296" s="3"/>
       <c r="E296" s="3"/>
       <c r="F296" s="4" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G296" s="3">
         <v>704</v>
@@ -11272,7 +10986,7 @@
     </row>
     <row r="297" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>0</v>
@@ -11293,7 +11007,7 @@
     </row>
     <row r="298" spans="1:10" ht="57" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>0</v>
@@ -11301,7 +11015,7 @@
       <c r="D298" s="3"/>
       <c r="E298" s="3"/>
       <c r="F298" s="4" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G298" s="3">
         <v>25</v>
@@ -11314,7 +11028,7 @@
     </row>
     <row r="299" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>0</v>
@@ -11322,7 +11036,7 @@
       <c r="D299" s="3"/>
       <c r="E299" s="3"/>
       <c r="F299" s="4" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G299" s="3">
         <v>102</v>
@@ -11335,7 +11049,7 @@
     </row>
     <row r="300" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="2" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>0</v>
@@ -11343,7 +11057,7 @@
       <c r="D300" s="3"/>
       <c r="E300" s="3"/>
       <c r="F300" s="4" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G300" s="3">
         <v>102</v>
@@ -11356,7 +11070,7 @@
     </row>
     <row r="301" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="2" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>0</v>
@@ -11364,7 +11078,7 @@
       <c r="D301" s="3"/>
       <c r="E301" s="3"/>
       <c r="F301" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G301" s="3">
         <v>102</v>
@@ -11377,7 +11091,7 @@
     </row>
     <row r="302" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="2" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>0</v>
@@ -11385,7 +11099,7 @@
       <c r="D302" s="3"/>
       <c r="E302" s="3"/>
       <c r="F302" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G302" s="3">
         <v>25</v>
@@ -11398,7 +11112,7 @@
     </row>
     <row r="303" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="2" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>0</v>
@@ -11406,7 +11120,7 @@
       <c r="D303" s="3"/>
       <c r="E303" s="3"/>
       <c r="F303" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G303" s="3">
         <v>25</v>
@@ -11419,7 +11133,7 @@
     </row>
     <row r="304" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>0</v>
@@ -11427,7 +11141,7 @@
       <c r="D304" s="3"/>
       <c r="E304" s="3"/>
       <c r="F304" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G304" s="3">
         <v>25</v>
@@ -11440,7 +11154,7 @@
     </row>
     <row r="305" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="2" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>0</v>
@@ -11448,7 +11162,7 @@
       <c r="D305" s="3"/>
       <c r="E305" s="3"/>
       <c r="F305" s="4" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G305" s="3">
         <v>25</v>
@@ -11461,7 +11175,7 @@
     </row>
     <row r="306" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="2" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>0</v>
@@ -11482,7 +11196,7 @@
     </row>
     <row r="307" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>0</v>
@@ -11490,7 +11204,7 @@
       <c r="D307" s="3"/>
       <c r="E307" s="3"/>
       <c r="F307" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G307" s="3">
         <v>28</v>
@@ -11503,7 +11217,7 @@
     </row>
     <row r="308" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="2" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>0</v>
@@ -11511,7 +11225,7 @@
       <c r="D308" s="3"/>
       <c r="E308" s="3"/>
       <c r="F308" s="4" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G308" s="3">
         <v>28</v>
@@ -11524,7 +11238,7 @@
     </row>
     <row r="309" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>0</v>
@@ -11532,7 +11246,7 @@
       <c r="D309" s="3"/>
       <c r="E309" s="3"/>
       <c r="F309" s="4" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G309" s="3">
         <v>28</v>
@@ -11545,7 +11259,7 @@
     </row>
     <row r="310" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="2" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>0</v>
@@ -11553,7 +11267,7 @@
       <c r="D310" s="3"/>
       <c r="E310" s="3"/>
       <c r="F310" s="4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G310" s="3">
         <v>25</v>
@@ -11566,7 +11280,7 @@
     </row>
     <row r="311" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>0</v>
@@ -11574,7 +11288,7 @@
       <c r="D311" s="3"/>
       <c r="E311" s="3"/>
       <c r="F311" s="4" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G311" s="3">
         <v>25</v>
@@ -11587,7 +11301,7 @@
     </row>
     <row r="312" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="2" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>0</v>
@@ -11595,7 +11309,7 @@
       <c r="D312" s="3"/>
       <c r="E312" s="3"/>
       <c r="F312" s="4" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G312" s="3">
         <v>25</v>
@@ -11608,7 +11322,7 @@
     </row>
     <row r="313" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="2" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>0</v>
@@ -11616,7 +11330,7 @@
       <c r="D313" s="3"/>
       <c r="E313" s="3"/>
       <c r="F313" s="4" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G313" s="3">
         <v>25</v>
@@ -11629,7 +11343,7 @@
     </row>
     <row r="314" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="2" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>0</v>
@@ -11637,7 +11351,7 @@
       <c r="D314" s="3"/>
       <c r="E314" s="3"/>
       <c r="F314" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G314" s="3">
         <v>11</v>
@@ -11650,7 +11364,7 @@
     </row>
     <row r="315" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="2" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>0</v>
@@ -11658,7 +11372,7 @@
       <c r="D315" s="3"/>
       <c r="E315" s="3"/>
       <c r="F315" s="4" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G315" s="3">
         <v>11</v>
@@ -11671,7 +11385,7 @@
     </row>
     <row r="316" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>0</v>
@@ -11679,7 +11393,7 @@
       <c r="D316" s="3"/>
       <c r="E316" s="3"/>
       <c r="F316" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G316" s="3">
         <v>11</v>
@@ -11692,7 +11406,7 @@
     </row>
     <row r="317" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="2" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>0</v>
@@ -11700,7 +11414,7 @@
       <c r="D317" s="3"/>
       <c r="E317" s="3"/>
       <c r="F317" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G317" s="3">
         <v>11</v>
@@ -11713,15 +11427,15 @@
     </row>
     <row r="318" spans="1:10" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="2" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D318" s="3"/>
       <c r="E318" s="3"/>
-      <c r="F318" s="40" t="s">
-        <v>742</v>
+      <c r="F318" s="36" t="s">
+        <v>741</v>
       </c>
       <c r="G318" s="3">
         <v>704</v>
@@ -11734,7 +11448,7 @@
     </row>
     <row r="319" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="2" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>0</v>
@@ -11742,7 +11456,7 @@
       <c r="D319" s="3"/>
       <c r="E319" s="3"/>
       <c r="F319" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G319" s="3">
         <v>704</v>
@@ -11755,7 +11469,7 @@
     </row>
     <row r="320" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="2" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>0</v>
@@ -11763,18 +11477,18 @@
       <c r="D320" s="3"/>
       <c r="E320" s="3"/>
       <c r="F320" s="4" t="s">
+        <v>743</v>
+      </c>
+      <c r="G320" s="38" t="s">
         <v>744</v>
       </c>
-      <c r="G320" s="42" t="s">
-        <v>745</v>
-      </c>
-      <c r="H320" s="44"/>
+      <c r="H320" s="39"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
     </row>
     <row r="321" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>0</v>
@@ -11782,18 +11496,18 @@
       <c r="D321" s="3"/>
       <c r="E321" s="3"/>
       <c r="F321" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="G321" s="42" t="s">
         <v>745</v>
       </c>
-      <c r="H321" s="44"/>
+      <c r="G321" s="38" t="s">
+        <v>744</v>
+      </c>
+      <c r="H321" s="39"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
     </row>
     <row r="322" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="2" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C322" s="2" t="s">
         <v>0</v>
@@ -11801,7 +11515,7 @@
       <c r="D322" s="3"/>
       <c r="E322" s="3"/>
       <c r="F322" s="4" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G322" s="3">
         <v>8</v>
@@ -11814,7 +11528,7 @@
     </row>
     <row r="323" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C323" s="2" t="s">
         <v>0</v>
@@ -11822,7 +11536,7 @@
       <c r="D323" s="3"/>
       <c r="E323" s="3"/>
       <c r="F323" s="4" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G323" s="3">
         <v>8</v>
@@ -11835,7 +11549,7 @@
     </row>
     <row r="324" spans="1:10" ht="36" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C324" s="2" t="s">
         <v>0</v>
@@ -11843,7 +11557,7 @@
       <c r="D324" s="3"/>
       <c r="E324" s="3"/>
       <c r="F324" s="4" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G324" s="3">
         <v>8</v>
@@ -11856,7 +11570,7 @@
     </row>
     <row r="325" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="2" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C325" s="2" t="s">
         <v>0</v>
@@ -11877,7 +11591,7 @@
     </row>
     <row r="326" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="2" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>0</v>
@@ -11894,7 +11608,7 @@
     </row>
     <row r="327" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="2" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C327" s="2" t="s">
         <v>0</v>
@@ -11904,7 +11618,7 @@
       </c>
       <c r="E327" s="3"/>
       <c r="F327" s="4" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G327" s="3"/>
       <c r="H327" s="3"/>
@@ -11913,7 +11627,7 @@
     </row>
     <row r="328" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="2" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>0</v>
@@ -11921,18 +11635,18 @@
       <c r="D328" s="3"/>
       <c r="E328" s="3"/>
       <c r="F328" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="G328" s="42" t="s">
-        <v>745</v>
-      </c>
-      <c r="H328" s="44"/>
+        <v>748</v>
+      </c>
+      <c r="G328" s="38" t="s">
+        <v>744</v>
+      </c>
+      <c r="H328" s="39"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
     </row>
     <row r="329" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="2" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>0</v>
@@ -11942,58 +11656,58 @@
       </c>
       <c r="E329" s="3"/>
       <c r="F329" s="4" t="s">
-        <v>749</v>
-      </c>
-      <c r="G329" s="42" t="s">
-        <v>745</v>
-      </c>
-      <c r="H329" s="44"/>
+        <v>748</v>
+      </c>
+      <c r="G329" s="38" t="s">
+        <v>744</v>
+      </c>
+      <c r="H329" s="39"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
     </row>
     <row r="330" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="2" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D330" s="3"/>
       <c r="E330" s="3"/>
       <c r="F330" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="G330" s="42" t="s">
-        <v>745</v>
-      </c>
-      <c r="H330" s="44"/>
+        <v>750</v>
+      </c>
+      <c r="G330" s="38" t="s">
+        <v>744</v>
+      </c>
+      <c r="H330" s="39"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
     </row>
     <row r="331" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="2" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D331" s="3" t="s">
         <v>238</v>
       </c>
       <c r="E331" s="3"/>
       <c r="F331" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="G331" s="42" t="s">
-        <v>745</v>
-      </c>
-      <c r="H331" s="44"/>
+        <v>750</v>
+      </c>
+      <c r="G331" s="38" t="s">
+        <v>744</v>
+      </c>
+      <c r="H331" s="39"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
     </row>
     <row r="332" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="2" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C332" s="2" t="s">
         <v>0</v>
@@ -12001,18 +11715,18 @@
       <c r="D332" s="3"/>
       <c r="E332" s="3"/>
       <c r="F332" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="G332" s="42" t="s">
-        <v>745</v>
-      </c>
-      <c r="H332" s="44"/>
+        <v>750</v>
+      </c>
+      <c r="G332" s="38" t="s">
+        <v>744</v>
+      </c>
+      <c r="H332" s="39"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
     </row>
     <row r="333" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="2" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C333" s="2" t="s">
         <v>0</v>
@@ -12022,18 +11736,18 @@
       </c>
       <c r="E333" s="3"/>
       <c r="F333" s="4" t="s">
-        <v>751</v>
-      </c>
-      <c r="G333" s="42" t="s">
-        <v>745</v>
-      </c>
-      <c r="H333" s="44"/>
+        <v>750</v>
+      </c>
+      <c r="G333" s="38" t="s">
+        <v>744</v>
+      </c>
+      <c r="H333" s="39"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
     </row>
     <row r="334" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="2" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C334" s="2" t="s">
         <v>0</v>
@@ -12041,18 +11755,18 @@
       <c r="D334" s="3"/>
       <c r="E334" s="3"/>
       <c r="F334" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="G334" s="38" t="s">
         <v>752</v>
       </c>
-      <c r="G334" s="42" t="s">
-        <v>753</v>
-      </c>
-      <c r="H334" s="44"/>
+      <c r="H334" s="39"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
     </row>
     <row r="335" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A335" s="2" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C335" s="2" t="s">
         <v>0</v>
@@ -12060,18 +11774,18 @@
       <c r="D335" s="3"/>
       <c r="E335" s="3"/>
       <c r="F335" s="4" t="s">
+        <v>751</v>
+      </c>
+      <c r="G335" s="38" t="s">
         <v>752</v>
       </c>
-      <c r="G335" s="42" t="s">
-        <v>753</v>
-      </c>
-      <c r="H335" s="44"/>
+      <c r="H335" s="39"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
     </row>
     <row r="336" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A336" s="2" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C336" s="2" t="s">
         <v>0</v>
@@ -12079,18 +11793,18 @@
       <c r="D336" s="3"/>
       <c r="E336" s="3"/>
       <c r="F336" s="4" t="s">
-        <v>754</v>
-      </c>
-      <c r="G336" s="42" t="s">
         <v>753</v>
       </c>
-      <c r="H336" s="44"/>
+      <c r="G336" s="38" t="s">
+        <v>752</v>
+      </c>
+      <c r="H336" s="39"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
     </row>
     <row r="337" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A337" s="2" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C337" s="2" t="s">
         <v>0</v>
@@ -12098,18 +11812,18 @@
       <c r="D337" s="3"/>
       <c r="E337" s="3"/>
       <c r="F337" s="4" t="s">
-        <v>755</v>
-      </c>
-      <c r="G337" s="42" t="s">
-        <v>745</v>
-      </c>
-      <c r="H337" s="44"/>
+        <v>754</v>
+      </c>
+      <c r="G337" s="38" t="s">
+        <v>744</v>
+      </c>
+      <c r="H337" s="39"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
     </row>
     <row r="338" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C338" s="2" t="s">
         <v>0</v>
@@ -12117,7 +11831,7 @@
       <c r="D338" s="3"/>
       <c r="E338" s="3"/>
       <c r="F338" s="4" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G338" s="3">
         <v>404</v>
@@ -12130,7 +11844,7 @@
     </row>
     <row r="339" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="2" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>0</v>
@@ -12138,7 +11852,7 @@
       <c r="D339" s="3"/>
       <c r="E339" s="3"/>
       <c r="F339" s="4" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G339" s="3">
         <v>409</v>
@@ -12151,7 +11865,7 @@
     </row>
     <row r="340" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A340" s="2" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>0</v>
@@ -12159,7 +11873,7 @@
       <c r="D340" s="3"/>
       <c r="E340" s="3"/>
       <c r="F340" s="4" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G340" s="3">
         <v>404</v>
@@ -12201,7 +11915,7 @@
     </row>
     <row r="342" spans="1:10" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A342" s="2" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C342" s="2" t="s">
         <v>0</v>
@@ -12209,18 +11923,18 @@
       <c r="D342" s="3"/>
       <c r="E342" s="3"/>
       <c r="F342" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="G342" s="42" t="s">
         <v>759</v>
       </c>
-      <c r="G342" s="45" t="s">
-        <v>760</v>
-      </c>
-      <c r="H342" s="46"/>
+      <c r="H342" s="43"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
     </row>
     <row r="343" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A343" s="2" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="C343" s="2" t="s">
         <v>0</v>
@@ -12228,7 +11942,7 @@
       <c r="D343" s="3"/>
       <c r="E343" s="3"/>
       <c r="F343" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G343" s="3">
         <v>405</v>
@@ -12241,7 +11955,7 @@
     </row>
     <row r="344" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A344" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C344" s="2" t="s">
         <v>0</v>
@@ -12249,18 +11963,18 @@
       <c r="D344" s="3"/>
       <c r="E344" s="3"/>
       <c r="F344" s="4" t="s">
+        <v>758</v>
+      </c>
+      <c r="G344" s="38" t="s">
         <v>759</v>
       </c>
-      <c r="G344" s="42" t="s">
-        <v>760</v>
-      </c>
-      <c r="H344" s="44"/>
+      <c r="H344" s="39"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
     </row>
     <row r="345" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A345" s="2" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="C345" s="2" t="s">
         <v>0</v>
@@ -12268,7 +11982,7 @@
       <c r="D345" s="3"/>
       <c r="E345" s="3"/>
       <c r="F345" s="4" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G345" s="3">
         <v>501</v>
@@ -12281,7 +11995,7 @@
     </row>
     <row r="346" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="2" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C346" s="2" t="s">
         <v>0</v>
@@ -12289,7 +12003,7 @@
       <c r="D346" s="3"/>
       <c r="E346" s="3"/>
       <c r="F346" s="4" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G346" s="3">
         <v>501</v>
@@ -12302,79 +12016,79 @@
     </row>
     <row r="347" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C347" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
-      <c r="F347" s="47" t="s">
+      <c r="F347" s="40" t="s">
+        <v>763</v>
+      </c>
+      <c r="G347" s="38" t="s">
         <v>764</v>
       </c>
-      <c r="G347" s="42" t="s">
-        <v>765</v>
-      </c>
-      <c r="H347" s="44"/>
+      <c r="H347" s="39"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
     </row>
     <row r="348" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A348" s="2" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C348" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
-      <c r="F348" s="48"/>
-      <c r="G348" s="42" t="s">
-        <v>765</v>
-      </c>
-      <c r="H348" s="44"/>
+      <c r="F348" s="41"/>
+      <c r="G348" s="38" t="s">
+        <v>764</v>
+      </c>
+      <c r="H348" s="39"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
     </row>
     <row r="349" spans="1:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A349" s="2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C349" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
-      <c r="F349" s="47" t="s">
+      <c r="F349" s="40" t="s">
+        <v>765</v>
+      </c>
+      <c r="G349" s="38" t="s">
         <v>766</v>
       </c>
-      <c r="G349" s="42" t="s">
-        <v>767</v>
-      </c>
-      <c r="H349" s="44"/>
+      <c r="H349" s="39"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
     </row>
     <row r="350" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="2" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C350" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
-      <c r="F350" s="48"/>
-      <c r="G350" s="42" t="s">
-        <v>768</v>
-      </c>
-      <c r="H350" s="44"/>
+      <c r="F350" s="41"/>
+      <c r="G350" s="38" t="s">
+        <v>767</v>
+      </c>
+      <c r="H350" s="39"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
     </row>
     <row r="351" spans="1:10" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A351" s="2" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C351" s="2" t="s">
         <v>0</v>
@@ -12382,18 +12096,18 @@
       <c r="D351" s="3"/>
       <c r="E351" s="3"/>
       <c r="F351" s="4" t="s">
+        <v>768</v>
+      </c>
+      <c r="G351" s="38" t="s">
         <v>769</v>
       </c>
-      <c r="G351" s="42" t="s">
-        <v>770</v>
-      </c>
-      <c r="H351" s="44"/>
+      <c r="H351" s="39"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
     </row>
     <row r="352" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A352" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C352" s="2" t="s">
         <v>0</v>
@@ -12401,7 +12115,7 @@
       <c r="D352" s="3"/>
       <c r="E352" s="3"/>
       <c r="F352" s="4" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G352" s="3">
         <v>405</v>
@@ -12414,7 +12128,7 @@
     </row>
     <row r="353" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A353" s="2" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C353" s="2" t="s">
         <v>0</v>
@@ -12424,7 +12138,7 @@
       </c>
       <c r="E353" s="3"/>
       <c r="F353" s="4" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G353" s="3">
         <v>404</v>
@@ -12437,7 +12151,7 @@
     </row>
     <row r="354" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A354" s="2" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C354" s="2" t="s">
         <v>0</v>
@@ -12445,7 +12159,7 @@
       <c r="D354" s="3"/>
       <c r="E354" s="3"/>
       <c r="F354" s="4" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G354" s="3">
         <v>405</v>
@@ -12458,7 +12172,7 @@
     </row>
     <row r="355" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A355" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C355" s="2" t="s">
         <v>0</v>
@@ -12466,7 +12180,7 @@
       <c r="D355" s="3"/>
       <c r="E355" s="3"/>
       <c r="F355" s="4" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G355" s="3"/>
       <c r="H355" s="3"/>
@@ -12475,7 +12189,7 @@
     </row>
     <row r="356" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A356" s="2" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="C356" s="2" t="s">
         <v>0</v>
@@ -12483,7 +12197,7 @@
       <c r="D356" s="3"/>
       <c r="E356" s="3"/>
       <c r="F356" s="4" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G356" s="3">
         <v>608</v>
@@ -12496,10 +12210,10 @@
     </row>
     <row r="357" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A357" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="D357" s="3" t="s">
         <v>480</v>
@@ -12508,7 +12222,7 @@
         <v>299</v>
       </c>
       <c r="F357" s="4" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G357" s="3">
         <v>401</v>
@@ -12520,11 +12234,26 @@
         <v>223</v>
       </c>
       <c r="J357" s="3" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="I219:J219"/>
+    <mergeCell ref="I220:J220"/>
+    <mergeCell ref="G320:H320"/>
+    <mergeCell ref="G321:H321"/>
+    <mergeCell ref="G328:H328"/>
+    <mergeCell ref="G329:H329"/>
+    <mergeCell ref="G330:H330"/>
+    <mergeCell ref="G331:H331"/>
+    <mergeCell ref="G332:H332"/>
+    <mergeCell ref="G333:H333"/>
+    <mergeCell ref="G334:H334"/>
+    <mergeCell ref="G335:H335"/>
+    <mergeCell ref="G336:H336"/>
+    <mergeCell ref="G337:H337"/>
+    <mergeCell ref="G342:H342"/>
     <mergeCell ref="G351:H351"/>
     <mergeCell ref="G344:H344"/>
     <mergeCell ref="F347:F348"/>
@@ -12533,21 +12262,6 @@
     <mergeCell ref="F349:F350"/>
     <mergeCell ref="G349:H349"/>
     <mergeCell ref="G350:H350"/>
-    <mergeCell ref="G334:H334"/>
-    <mergeCell ref="G335:H335"/>
-    <mergeCell ref="G336:H336"/>
-    <mergeCell ref="G337:H337"/>
-    <mergeCell ref="G342:H342"/>
-    <mergeCell ref="G329:H329"/>
-    <mergeCell ref="G330:H330"/>
-    <mergeCell ref="G331:H331"/>
-    <mergeCell ref="G332:H332"/>
-    <mergeCell ref="G333:H333"/>
-    <mergeCell ref="I219:J219"/>
-    <mergeCell ref="I220:J220"/>
-    <mergeCell ref="G320:H320"/>
-    <mergeCell ref="G321:H321"/>
-    <mergeCell ref="G328:H328"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/data/Databases/Armatures.xlsx
+++ b/data/Databases/Armatures.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Projects\Pult\data\Databases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA59DD52-5CEC-49EE-A168-8E8E458C5A41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02BE6BD4-A27C-44F0-9C80-C1148F848284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{689DFDD8-E52F-443B-909B-536243585B70}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1555" uniqueCount="845">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="846">
   <si>
     <t>ручн.</t>
   </si>
@@ -2924,6 +2924,9 @@
   </si>
   <si>
     <t>Безымянный-1.pdf</t>
+  </si>
+  <si>
+    <t>Безымянный-2.pdf</t>
   </si>
 </sst>
 </file>
@@ -3383,7 +3386,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3391,15 +3403,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3719,7 +3722,7 @@
   <dimension ref="A1:J357"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3792,9 +3795,7 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25" t="s">
-        <v>844</v>
-      </c>
+      <c r="B3" s="25"/>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3912,9 +3913,7 @@
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>844</v>
-      </c>
+      <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
@@ -3945,7 +3944,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
@@ -3976,9 +3975,7 @@
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>844</v>
-      </c>
+      <c r="B10" s="3"/>
       <c r="C10" s="3" t="s">
         <v>32</v>
       </c>
@@ -9214,7 +9211,7 @@
       <c r="I219" s="38" t="s">
         <v>557</v>
       </c>
-      <c r="J219" s="44"/>
+      <c r="J219" s="39"/>
     </row>
     <row r="220" spans="1:10" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="2" t="s">
@@ -9236,7 +9233,7 @@
         <v>15</v>
       </c>
       <c r="I220" s="38"/>
-      <c r="J220" s="44"/>
+      <c r="J220" s="39"/>
     </row>
     <row r="221" spans="1:10" ht="34.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="2" t="s">
@@ -11482,7 +11479,7 @@
       <c r="G320" s="38" t="s">
         <v>744</v>
       </c>
-      <c r="H320" s="39"/>
+      <c r="H320" s="40"/>
       <c r="I320" s="3"/>
       <c r="J320" s="3"/>
     </row>
@@ -11501,7 +11498,7 @@
       <c r="G321" s="38" t="s">
         <v>744</v>
       </c>
-      <c r="H321" s="39"/>
+      <c r="H321" s="40"/>
       <c r="I321" s="3"/>
       <c r="J321" s="3"/>
     </row>
@@ -11640,7 +11637,7 @@
       <c r="G328" s="38" t="s">
         <v>744</v>
       </c>
-      <c r="H328" s="39"/>
+      <c r="H328" s="40"/>
       <c r="I328" s="3"/>
       <c r="J328" s="3"/>
     </row>
@@ -11661,7 +11658,7 @@
       <c r="G329" s="38" t="s">
         <v>744</v>
       </c>
-      <c r="H329" s="39"/>
+      <c r="H329" s="40"/>
       <c r="I329" s="3"/>
       <c r="J329" s="3"/>
     </row>
@@ -11680,7 +11677,7 @@
       <c r="G330" s="38" t="s">
         <v>744</v>
       </c>
-      <c r="H330" s="39"/>
+      <c r="H330" s="40"/>
       <c r="I330" s="3"/>
       <c r="J330" s="3"/>
     </row>
@@ -11701,7 +11698,7 @@
       <c r="G331" s="38" t="s">
         <v>744</v>
       </c>
-      <c r="H331" s="39"/>
+      <c r="H331" s="40"/>
       <c r="I331" s="3"/>
       <c r="J331" s="3"/>
     </row>
@@ -11720,7 +11717,7 @@
       <c r="G332" s="38" t="s">
         <v>744</v>
       </c>
-      <c r="H332" s="39"/>
+      <c r="H332" s="40"/>
       <c r="I332" s="3"/>
       <c r="J332" s="3"/>
     </row>
@@ -11741,7 +11738,7 @@
       <c r="G333" s="38" t="s">
         <v>744</v>
       </c>
-      <c r="H333" s="39"/>
+      <c r="H333" s="40"/>
       <c r="I333" s="3"/>
       <c r="J333" s="3"/>
     </row>
@@ -11760,7 +11757,7 @@
       <c r="G334" s="38" t="s">
         <v>752</v>
       </c>
-      <c r="H334" s="39"/>
+      <c r="H334" s="40"/>
       <c r="I334" s="3"/>
       <c r="J334" s="3"/>
     </row>
@@ -11779,7 +11776,7 @@
       <c r="G335" s="38" t="s">
         <v>752</v>
       </c>
-      <c r="H335" s="39"/>
+      <c r="H335" s="40"/>
       <c r="I335" s="3"/>
       <c r="J335" s="3"/>
     </row>
@@ -11798,7 +11795,7 @@
       <c r="G336" s="38" t="s">
         <v>752</v>
       </c>
-      <c r="H336" s="39"/>
+      <c r="H336" s="40"/>
       <c r="I336" s="3"/>
       <c r="J336" s="3"/>
     </row>
@@ -11817,7 +11814,7 @@
       <c r="G337" s="38" t="s">
         <v>744</v>
       </c>
-      <c r="H337" s="39"/>
+      <c r="H337" s="40"/>
       <c r="I337" s="3"/>
       <c r="J337" s="3"/>
     </row>
@@ -11925,10 +11922,10 @@
       <c r="F342" s="4" t="s">
         <v>758</v>
       </c>
-      <c r="G342" s="42" t="s">
+      <c r="G342" s="41" t="s">
         <v>759</v>
       </c>
-      <c r="H342" s="43"/>
+      <c r="H342" s="42"/>
       <c r="I342" s="3"/>
       <c r="J342" s="3"/>
     </row>
@@ -11968,7 +11965,7 @@
       <c r="G344" s="38" t="s">
         <v>759</v>
       </c>
-      <c r="H344" s="39"/>
+      <c r="H344" s="40"/>
       <c r="I344" s="3"/>
       <c r="J344" s="3"/>
     </row>
@@ -12023,13 +12020,13 @@
       </c>
       <c r="D347" s="3"/>
       <c r="E347" s="3"/>
-      <c r="F347" s="40" t="s">
+      <c r="F347" s="43" t="s">
         <v>763</v>
       </c>
       <c r="G347" s="38" t="s">
         <v>764</v>
       </c>
-      <c r="H347" s="39"/>
+      <c r="H347" s="40"/>
       <c r="I347" s="3"/>
       <c r="J347" s="3"/>
     </row>
@@ -12042,11 +12039,11 @@
       </c>
       <c r="D348" s="3"/>
       <c r="E348" s="3"/>
-      <c r="F348" s="41"/>
+      <c r="F348" s="44"/>
       <c r="G348" s="38" t="s">
         <v>764</v>
       </c>
-      <c r="H348" s="39"/>
+      <c r="H348" s="40"/>
       <c r="I348" s="3"/>
       <c r="J348" s="3"/>
     </row>
@@ -12059,13 +12056,13 @@
       </c>
       <c r="D349" s="3"/>
       <c r="E349" s="3"/>
-      <c r="F349" s="40" t="s">
+      <c r="F349" s="43" t="s">
         <v>765</v>
       </c>
       <c r="G349" s="38" t="s">
         <v>766</v>
       </c>
-      <c r="H349" s="39"/>
+      <c r="H349" s="40"/>
       <c r="I349" s="3"/>
       <c r="J349" s="3"/>
     </row>
@@ -12078,11 +12075,11 @@
       </c>
       <c r="D350" s="3"/>
       <c r="E350" s="3"/>
-      <c r="F350" s="41"/>
+      <c r="F350" s="44"/>
       <c r="G350" s="38" t="s">
         <v>767</v>
       </c>
-      <c r="H350" s="39"/>
+      <c r="H350" s="40"/>
       <c r="I350" s="3"/>
       <c r="J350" s="3"/>
     </row>
@@ -12101,7 +12098,7 @@
       <c r="G351" s="38" t="s">
         <v>769</v>
       </c>
-      <c r="H351" s="39"/>
+      <c r="H351" s="40"/>
       <c r="I351" s="3"/>
       <c r="J351" s="3"/>
     </row>
@@ -12239,21 +12236,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="I219:J219"/>
-    <mergeCell ref="I220:J220"/>
-    <mergeCell ref="G320:H320"/>
-    <mergeCell ref="G321:H321"/>
-    <mergeCell ref="G328:H328"/>
-    <mergeCell ref="G329:H329"/>
-    <mergeCell ref="G330:H330"/>
-    <mergeCell ref="G331:H331"/>
-    <mergeCell ref="G332:H332"/>
-    <mergeCell ref="G333:H333"/>
-    <mergeCell ref="G334:H334"/>
-    <mergeCell ref="G335:H335"/>
-    <mergeCell ref="G336:H336"/>
-    <mergeCell ref="G337:H337"/>
-    <mergeCell ref="G342:H342"/>
     <mergeCell ref="G351:H351"/>
     <mergeCell ref="G344:H344"/>
     <mergeCell ref="F347:F348"/>
@@ -12262,6 +12244,21 @@
     <mergeCell ref="F349:F350"/>
     <mergeCell ref="G349:H349"/>
     <mergeCell ref="G350:H350"/>
+    <mergeCell ref="G334:H334"/>
+    <mergeCell ref="G335:H335"/>
+    <mergeCell ref="G336:H336"/>
+    <mergeCell ref="G337:H337"/>
+    <mergeCell ref="G342:H342"/>
+    <mergeCell ref="G329:H329"/>
+    <mergeCell ref="G330:H330"/>
+    <mergeCell ref="G331:H331"/>
+    <mergeCell ref="G332:H332"/>
+    <mergeCell ref="G333:H333"/>
+    <mergeCell ref="I219:J219"/>
+    <mergeCell ref="I220:J220"/>
+    <mergeCell ref="G320:H320"/>
+    <mergeCell ref="G321:H321"/>
+    <mergeCell ref="G328:H328"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/data/Databases/Armatures.xlsx
+++ b/data/Databases/Armatures.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="846">
   <si>
     <t>ручн.</t>
   </si>
@@ -3913,7 +3913,9 @@
       <c r="A8" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>844</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>19</v>
       </c>
@@ -3944,7 +3946,7 @@
         <v>26</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>27</v>
@@ -3975,7 +3977,9 @@
       <c r="A10" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>845</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>32</v>
       </c>

--- a/data/Databases/Armatures.xlsx
+++ b/data/Databases/Armatures.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="846">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1582" uniqueCount="846">
   <si>
     <t>ручн.</t>
   </si>
@@ -3771,9 +3771,7 @@
       <c r="A2" s="37" t="s">
         <v>843</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>844</v>
-      </c>
+      <c r="B2" s="25"/>
       <c r="C2" s="16" t="s">
         <v>0</v>
       </c>
@@ -3795,7 +3793,9 @@
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="25"/>
+      <c r="B3" s="25" t="s">
+        <v>845</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
@@ -3825,7 +3825,9 @@
       <c r="A4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>845</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>0</v>
       </c>
